--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
+          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-02 08:55</t>
+          <t>11-03 08:56</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300487,1241810157.html</t>
+          <t>/news,300487,1242335116.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>112</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
+          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-02 07:57</t>
+          <t>11-03 07:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300487,1241802421.html</t>
+          <t>/news,300487,1242326587.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>285</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
+          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 20:38</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300487,1241306910.html</t>
+          <t>/news,300487,1242248316.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>171</t>
+          <t>142</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
+          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 08:55</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300487,1241296443.html</t>
+          <t>/news,300487,1241810157.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
+          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,29 +605,29 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-02 07:57</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300487,1241209949.html</t>
+          <t>/news,300487,1241802421.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蓝晓科技：高级管理人员邓建康辞职</t>
+          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>10-31 17:54</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300487,1241177635.html</t>
+          <t>/news,300487,1241306910.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
+          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,83 +669,83 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>10-31 08:59</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300487,1240797002.html</t>
+          <t>/news,300487,1241296443.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
+          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300487,1240712956.html</t>
+          <t>/news,300487,1241209949.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
+          <t>蓝晓科技：高级管理人员邓建康辞职</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-31 17:54</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300487,1240707584.html</t>
+          <t>/news,300487,1241177635.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
+          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-30 13:59</t>
+          <t>10-31 08:59</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300487,1240705782.html</t>
+          <t>/news,300487,1240797002.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,61 +787,61 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
+          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300487,1240601271.html</t>
+          <t>/news,300487,1240712956.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
+          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-28 11:19</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300487,1240242802.html</t>
+          <t>/news,300487,1240707584.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,39 +851,39 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
+          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-28 09:18</t>
+          <t>10-30 13:59</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300487,1240064947.html</t>
+          <t>/news,300487,1240705782.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
+          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,51 +893,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-28 07:47</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300487,1240047399.html</t>
+          <t>/news,300487,1240601271.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>景顺长城基金刘彦春调研蓝晓科技</t>
+          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-27 09:57</t>
+          <t>10-28 11:19</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300487,1239582222.html</t>
+          <t>/news,300487,1240242802.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>178</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
+          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-27 08:57</t>
+          <t>10-28 09:18</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300487,1239507200.html</t>
+          <t>/news,300487,1240064947.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
+          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-28 07:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300487,1239499296.html</t>
+          <t>/news,300487,1240047399.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
+          <t>景顺长城基金刘彦春调研蓝晓科技</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-26 22:39</t>
+          <t>10-27 09:57</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300487,1239454973.html</t>
+          <t>/news,300487,1239582222.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
+          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,83 +1053,83 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-26 21:30</t>
+          <t>10-27 08:57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300487,1239444137.html</t>
+          <t>/news,300487,1239507200.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
+          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-26 19:32</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300487,1239399515.html</t>
+          <t>/news,300487,1239499296.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>394</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
+          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-26 18:50</t>
+          <t>10-26 22:39</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300487,1239385772.html</t>
+          <t>/news,300487,1239454973.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>国海证券给予蓝晓科技买入评级</t>
+          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-26 17:52</t>
+          <t>10-26 21:30</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300487,1239368636.html</t>
+          <t>/news,300487,1239444137.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,103 +1171,103 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
+          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 08:54</t>
+          <t>10-26 19:32</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300487,1238979058.html</t>
+          <t>/news,300487,1239399515.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
+          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-26 18:50</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300487,1238967838.html</t>
+          <t>/news,300487,1239385772.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
+          <t>国海证券给予蓝晓科技买入评级</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 17:52</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300487,1238867877.html</t>
+          <t>/news,300487,1239368636.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>437</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
+          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,93 +1277,93 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-25 14:51</t>
+          <t>10-26 08:54</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300487,1238772466.html</t>
+          <t>/news,300487,1238979058.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
+          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-25 14:47</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300487,1238766498.html</t>
+          <t>/news,300487,1238967838.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>319</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
+          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 09:16</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300487,1238467589.html</t>
+          <t>/news,300487,1238867877.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
+          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 09:09</t>
+          <t>10-25 14:51</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300487,1238463911.html</t>
+          <t>/news,300487,1238772466.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
+          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-25 14:47</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300487,1238459621.html</t>
+          <t>/news,300487,1238766498.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
+          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 08:53</t>
+          <t>10-25 09:16</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300487,1238458231.html</t>
+          <t>/news,300487,1238467589.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
+          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,61 +1469,61 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 09:09</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300487,1238448856.html</t>
+          <t>/news,300487,1238463911.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
+          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-24 23:07</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300487,1238415050.html</t>
+          <t>/news,300487,1238459621.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
+          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-24 19:52</t>
+          <t>10-25 08:53</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300487,1238354985.html</t>
+          <t>/news,300487,1238458231.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
+          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-24 19:41</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300487,1238351074.html</t>
+          <t>/news,300487,1238448856.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>382</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
+          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-24 19:39</t>
+          <t>10-24 23:07</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300487,1238354298.html</t>
+          <t>/news,300487,1238415050.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>401</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
+          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 19:52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300487,1237859908.html</t>
+          <t>/news,300487,1238354985.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>430</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
+          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-22 07:50</t>
+          <t>10-24 19:41</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300487,1237797045.html</t>
+          <t>/news,300487,1238351074.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
+          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-24 19:39</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300487,1237349012.html</t>
+          <t>/news,300487,1238354298.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>350</t>
+          <t>402</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
+          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300487,1236889696.html</t>
+          <t>/news,300487,1237859908.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
+          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-19 18:02</t>
+          <t>10-22 07:50</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300487,1236766569.html</t>
+          <t>/news,300487,1237797045.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,7 +1779,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-19 16:40</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300487,1236751518.html</t>
+          <t>/news,300487,1237349012.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
+          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300487,1236438954.html</t>
+          <t>/news,300487,1236889696.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>1862</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
+          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-18 12:37</t>
+          <t>10-19 18:02</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300487,1236214520.html</t>
+          <t>/news,300487,1236766569.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-18 07:51</t>
+          <t>10-19 16:40</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300487,1236042428.html</t>
+          <t>/news,300487,1236751518.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
+          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-17 20:39</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300487,1235986795.html</t>
+          <t>/news,300487,1236438954.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>1867</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
+          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 12:37</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300487,1235954029.html</t>
+          <t>/news,300487,1236214520.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,51 +1981,51 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-17 17:57</t>
+          <t>10-18 07:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300487,1235953563.html</t>
+          <t>/news,300487,1236042428.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
+          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 20:39</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300487,1235576161.html</t>
+          <t>/news,300487,1235986795.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
+          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300487,1235512228.html</t>
+          <t>/news,300487,1235954029.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-14 18:01</t>
+          <t>10-17 17:57</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300487,1235409628.html</t>
+          <t>/news,300487,1235953563.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>269</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
+          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-14 07:50</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300487,1235082168.html</t>
+          <t>/news,300487,1235576161.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
+          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-13 18:01</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300487,1234947863.html</t>
+          <t>/news,300487,1235512228.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-13 17:53</t>
+          <t>10-14 18:01</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300487,1234946457.html</t>
+          <t>/news,300487,1235409628.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
+          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-13 08:04</t>
+          <t>10-14 07:50</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300487,1234648221.html</t>
+          <t>/news,300487,1235082168.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-12 17:47</t>
+          <t>10-13 18:01</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300487,1234527694.html</t>
+          <t>/news,300487,1234947863.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-13 17:53</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300487,1234212951.html</t>
+          <t>/news,300487,1234946457.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
+          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,19 +2301,19 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-11 07:51</t>
+          <t>10-13 08:04</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300487,1233836972.html</t>
+          <t>/news,300487,1234648221.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-10 19:43</t>
+          <t>10-12 17:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300487,1233749984.html</t>
+          <t>/news,300487,1234527694.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
+          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-10 19:42</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300487,1233750103.html</t>
+          <t>/news,300487,1234212951.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,39 +2387,39 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
+          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-11 07:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300487,1233317225.html</t>
+          <t>/news,300487,1233836972.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>883</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>蓝晓科技董事韦卫军减持1万股 减持金额75.74万元</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>09-30 20:28</t>
+          <t>10-10 19:43</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300487,1232881148.html</t>
+          <t>/news,300487,1233749984.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>蓝晓科技09月29日获深股通增持36.66万股</t>
+          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>09-30 07:44</t>
+          <t>10-10 19:42</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300487,1232534949.html</t>
+          <t>/news,300487,1233750103.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>09-29 17:56</t>
+          <t>10-09 14:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300487,1232437006.html</t>
+          <t>/news,300487,1233317225.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>885</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>蓝晓科技09月28日获深股通增持33.65万股</t>
+          <t>蓝晓科技董事韦卫军减持1万股 减持金额75.74万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-29 07:50</t>
+          <t>09-30 20:28</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300487,1232087804.html</t>
+          <t>/news,300487,1232881148.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>蓝晓科技：“蓝晓转债”赎回登记日为2022年10月21日 赎回价格为100.74 元/张</t>
+          <t>蓝晓科技09月29日获深股通增持36.66万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-28 18:16</t>
+          <t>09-30 07:44</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300487,1231980331.html</t>
+          <t>/news,300487,1232534949.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>蓝晓科技09月27日被深股通减持3.55万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-28 07:51</t>
+          <t>09-29 17:56</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300487,1231637507.html</t>
+          <t>/news,300487,1232437006.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>蓝晓科技09月26日获深股通增持22.89万股</t>
+          <t>蓝晓科技09月28日获深股通增持33.65万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-27 07:54</t>
+          <t>09-29 07:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300487,1231248069.html</t>
+          <t>/news,300487,1232087804.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技：“蓝晓转债”赎回登记日为2022年10月21日 赎回价格为100.74 元/张</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-26 18:41</t>
+          <t>09-28 18:16</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300487,1231151460.html</t>
+          <t>/news,300487,1231980331.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加3447.37万元，居塑料制品板块第二</t>
+          <t>蓝晓科技09月27日被深股通减持3.55万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-28 07:51</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300487,1230723370.html</t>
+          <t>/news,300487,1231637507.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>蓝晓科技09月23日获深股通增持18.39万股</t>
+          <t>蓝晓科技09月26日获深股通增持22.89万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-24 07:58</t>
+          <t>09-27 07:54</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300487,1230641745.html</t>
+          <t>/news,300487,1231248069.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>【调研快报】蓝晓科技接待中邮证券等多家机构调研</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-23 20:08</t>
+          <t>09-26 18:41</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300487,1230608625.html</t>
+          <t>/news,300487,1231151460.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>660</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>蓝晓科技：截至本公告日 田晓军累计质押股数为228万股</t>
+          <t>蓝晓科技本周深股通持股市值增加3447.37万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-23 19:00</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300487,1230576550.html</t>
+          <t>/news,300487,1230723370.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>蓝晓科技09月22日获深股通增持7.65万股</t>
+          <t>蓝晓科技09月23日获深股通增持18.39万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-23 07:54</t>
+          <t>09-24 07:58</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300487,1230234815.html</t>
+          <t>/news,300487,1230641745.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>【调研快报】蓝晓科技接待中邮证券等多家机构调研</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-22 20:19</t>
+          <t>09-23 20:08</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300487,1230158647.html</t>
+          <t>/news,300487,1230608625.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>蓝晓科技09月21日获深股通增持7.92万股</t>
+          <t>蓝晓科技：截至本公告日 田晓军累计质押股数为228万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-22 08:01</t>
+          <t>09-23 19:00</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300487,1229812628.html</t>
+          <t>/news,300487,1230576550.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>蓝晓科技09月20日获深股通增持13.23万股</t>
+          <t>蓝晓科技09月22日获深股通增持7.65万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-21 07:53</t>
+          <t>09-23 07:54</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300487,1229383091.html</t>
+          <t>/news,300487,1230234815.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>464</t>
+          <t>697</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>蓝晓科技董事安源减持7500股 减持金额57.08万元</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-20 21:30</t>
+          <t>09-22 20:19</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300487,1229317502.html</t>
+          <t>/news,300487,1230158647.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>蓝晓科技09月19日被深股通减持1.33万股</t>
+          <t>蓝晓科技09月21日获深股通增持7.92万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-20 08:06</t>
+          <t>09-22 08:01</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300487,1228973828.html</t>
+          <t>/news,300487,1229812628.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>619</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少2536.37万元，居塑料制品板块第一</t>
+          <t>蓝晓科技09月20日获深股通增持13.23万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-18 14:07</t>
+          <t>09-21 07:53</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300487,1228441805.html</t>
+          <t>/news,300487,1229383091.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>87</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
+          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-03 08:56</t>
+          <t>11-04 08:52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300487,1242335116.html</t>
+          <t>/news,300487,1242826544.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>106</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
+          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-03 07:56</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300487,1242326587.html</t>
+          <t>/news,300487,1242815890.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>285</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
+          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-02 20:38</t>
+          <t>11-03 08:56</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300487,1242248316.html</t>
+          <t>/news,300487,1242335116.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
+          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-02 08:55</t>
+          <t>11-03 07:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300487,1241810157.html</t>
+          <t>/news,300487,1242326587.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
+          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 07:57</t>
+          <t>11-02 20:38</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300487,1241802421.html</t>
+          <t>/news,300487,1242248316.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
+          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:55</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300487,1241306910.html</t>
+          <t>/news,300487,1241810157.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
+          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300487,1241296443.html</t>
+          <t>/news,300487,1241802421.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
+          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300487,1241209949.html</t>
+          <t>/news,300487,1241306910.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>蓝晓科技：高级管理人员邓建康辞职</t>
+          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>10-31 17:54</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300487,1241177635.html</t>
+          <t>/news,300487,1241296443.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
+          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,51 +765,51 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-31 08:59</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300487,1240797002.html</t>
+          <t>/news,300487,1241209949.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>439</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
+          <t>蓝晓科技：高级管理人员邓建康辞职</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 17:54</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300487,1240712956.html</t>
+          <t>/news,300487,1241177635.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
+          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-31 08:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300487,1240707584.html</t>
+          <t>/news,300487,1240797002.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
+          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-30 13:59</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300487,1240705782.html</t>
+          <t>/news,300487,1240712956.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,39 +883,39 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
+          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300487,1240601271.html</t>
+          <t>/news,300487,1240707584.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
+          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-28 11:19</t>
+          <t>10-30 13:59</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300487,1240242802.html</t>
+          <t>/news,300487,1240705782.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
+          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-28 09:18</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300487,1240064947.html</t>
+          <t>/news,300487,1240601271.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
+          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-28 07:47</t>
+          <t>10-28 11:19</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300487,1240047399.html</t>
+          <t>/news,300487,1240242802.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>景顺长城基金刘彦春调研蓝晓科技</t>
+          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-27 09:57</t>
+          <t>10-28 09:18</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300487,1239582222.html</t>
+          <t>/news,300487,1240064947.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>179</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
+          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-27 08:57</t>
+          <t>10-28 07:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300487,1239507200.html</t>
+          <t>/news,300487,1240047399.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
+          <t>景顺长城基金刘彦春调研蓝晓科技</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-27 09:57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300487,1239499296.html</t>
+          <t>/news,300487,1239582222.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>394</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
+          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-26 22:39</t>
+          <t>10-27 08:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300487,1239454973.html</t>
+          <t>/news,300487,1239507200.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
+          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-26 21:30</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300487,1239444137.html</t>
+          <t>/news,300487,1239499296.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
+          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 19:32</t>
+          <t>10-26 22:39</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300487,1239399515.html</t>
+          <t>/news,300487,1239454973.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
+          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 18:50</t>
+          <t>10-26 21:30</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300487,1239385772.html</t>
+          <t>/news,300487,1239444137.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国海证券给予蓝晓科技买入评级</t>
+          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 17:52</t>
+          <t>10-26 19:32</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300487,1239368636.html</t>
+          <t>/news,300487,1239399515.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
+          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 08:54</t>
+          <t>10-26 18:50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300487,1238979058.html</t>
+          <t>/news,300487,1239385772.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>224</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
+          <t>国海证券给予蓝晓科技买入评级</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,61 +1309,61 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-26 17:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300487,1238967838.html</t>
+          <t>/news,300487,1239368636.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>177</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
+          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 08:54</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300487,1238867877.html</t>
+          <t>/news,300487,1238979058.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
+          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-25 14:51</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300487,1238772466.html</t>
+          <t>/news,300487,1238967838.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>329</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
+          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 14:47</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300487,1238766498.html</t>
+          <t>/news,300487,1238867877.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>443</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
+          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,93 +1437,93 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 09:16</t>
+          <t>10-25 14:51</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300487,1238467589.html</t>
+          <t>/news,300487,1238772466.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
+          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 09:09</t>
+          <t>10-25 14:47</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300487,1238463911.html</t>
+          <t>/news,300487,1238766498.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
+          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-25 09:16</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300487,1238459621.html</t>
+          <t>/news,300487,1238467589.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>404</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
+          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,19 +1533,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 08:53</t>
+          <t>10-25 09:09</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300487,1238458231.html</t>
+          <t>/news,300487,1238463911.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,39 +1555,39 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
+          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300487,1238448856.html</t>
+          <t>/news,300487,1238459621.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
+          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-24 23:07</t>
+          <t>10-25 08:53</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300487,1238415050.html</t>
+          <t>/news,300487,1238458231.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
+          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-24 19:52</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300487,1238354985.html</t>
+          <t>/news,300487,1238448856.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
+          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-24 19:41</t>
+          <t>10-24 23:07</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300487,1238351074.html</t>
+          <t>/news,300487,1238415050.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
+          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,51 +1693,51 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-24 19:39</t>
+          <t>10-24 19:52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300487,1238354298.html</t>
+          <t>/news,300487,1238354985.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>402</t>
+          <t>536</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
+          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 19:41</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300487,1237859908.html</t>
+          <t>/news,300487,1238351074.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>431</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
+          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-22 07:50</t>
+          <t>10-24 19:39</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300487,1237797045.html</t>
+          <t>/news,300487,1238354298.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>405</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,39 +1779,39 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
+          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300487,1237349012.html</t>
+          <t>/news,300487,1237859908.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
+          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-22 07:50</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300487,1236889696.html</t>
+          <t>/news,300487,1237797045.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
+          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-19 18:02</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300487,1236766569.html</t>
+          <t>/news,300487,1237349012.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-19 16:40</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300487,1236751518.html</t>
+          <t>/news,300487,1236889696.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
+          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-19 18:02</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300487,1236438954.html</t>
+          <t>/news,300487,1236766569.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>1867</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-18 12:37</t>
+          <t>10-19 16:40</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300487,1236214520.html</t>
+          <t>/news,300487,1236751518.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
+          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-18 07:51</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300487,1236042428.html</t>
+          <t>/news,300487,1236438954.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>1875</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
+          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-17 20:39</t>
+          <t>10-18 12:37</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300487,1235986795.html</t>
+          <t>/news,300487,1236214520.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
+          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 07:51</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300487,1235954029.html</t>
+          <t>/news,300487,1236042428.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>454</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-17 17:57</t>
+          <t>10-17 20:39</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300487,1235953563.html</t>
+          <t>/news,300487,1235986795.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
+          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300487,1235576161.html</t>
+          <t>/news,300487,1235954029.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-17 17:57</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300487,1235512228.html</t>
+          <t>/news,300487,1235953563.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,29 +2163,29 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
+          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-14 18:01</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300487,1235409628.html</t>
+          <t>/news,300487,1235576161.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
+          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-14 07:50</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300487,1235082168.html</t>
+          <t>/news,300487,1235512228.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>330</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
+          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-13 18:01</t>
+          <t>10-14 18:01</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300487,1234947863.html</t>
+          <t>/news,300487,1235409628.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-13 17:53</t>
+          <t>10-14 07:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300487,1234946457.html</t>
+          <t>/news,300487,1235082168.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
+          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,24 +2301,24 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-13 08:04</t>
+          <t>10-13 18:01</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300487,1234648221.html</t>
+          <t>/news,300487,1234947863.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-12 17:47</t>
+          <t>10-13 17:53</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300487,1234527694.html</t>
+          <t>/news,300487,1234946457.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
+          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-13 08:04</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300487,1234212951.html</t>
+          <t>/news,300487,1234648221.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-11 07:51</t>
+          <t>10-12 17:47</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300487,1233836972.html</t>
+          <t>/news,300487,1234527694.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,19 +2429,19 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-10 19:43</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300487,1233749984.html</t>
+          <t>/news,300487,1234212951.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
+          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-10 19:42</t>
+          <t>10-11 07:51</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300487,1233750103.html</t>
+          <t>/news,300487,1233836972.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>284</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,39 +2483,39 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-10 19:43</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300487,1233317225.html</t>
+          <t>/news,300487,1233749984.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>蓝晓科技董事韦卫军减持1万股 减持金额75.74万元</t>
+          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>09-30 20:28</t>
+          <t>10-10 19:42</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300487,1232881148.html</t>
+          <t>/news,300487,1233750103.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>蓝晓科技09月29日获深股通增持36.66万股</t>
+          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>09-30 07:44</t>
+          <t>10-09 14:06</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300487,1232534949.html</t>
+          <t>/news,300487,1233317225.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>884</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技董事韦卫军减持1万股 减持金额75.74万元</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-29 17:56</t>
+          <t>09-30 20:28</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300487,1232437006.html</t>
+          <t>/news,300487,1232881148.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>蓝晓科技09月28日获深股通增持33.65万股</t>
+          <t>蓝晓科技09月29日获深股通增持36.66万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-29 07:50</t>
+          <t>09-30 07:44</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300487,1232087804.html</t>
+          <t>/news,300487,1232534949.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>蓝晓科技：“蓝晓转债”赎回登记日为2022年10月21日 赎回价格为100.74 元/张</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-28 18:16</t>
+          <t>09-29 17:56</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300487,1231980331.html</t>
+          <t>/news,300487,1232437006.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>蓝晓科技09月27日被深股通减持3.55万股</t>
+          <t>蓝晓科技09月28日获深股通增持33.65万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-28 07:51</t>
+          <t>09-29 07:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300487,1231637507.html</t>
+          <t>/news,300487,1232087804.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>蓝晓科技09月26日获深股通增持22.89万股</t>
+          <t>蓝晓科技：“蓝晓转债”赎回登记日为2022年10月21日 赎回价格为100.74 元/张</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-27 07:54</t>
+          <t>09-28 18:16</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300487,1231248069.html</t>
+          <t>/news,300487,1231980331.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技09月27日被深股通减持3.55万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,51 +2749,51 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-26 18:41</t>
+          <t>09-28 07:51</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300487,1231151460.html</t>
+          <t>/news,300487,1231637507.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加3447.37万元，居塑料制品板块第二</t>
+          <t>蓝晓科技09月26日获深股通增持22.89万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-27 07:54</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300487,1230723370.html</t>
+          <t>/news,300487,1231248069.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>蓝晓科技09月23日获深股通增持18.39万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,51 +2813,51 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-24 07:58</t>
+          <t>09-26 18:41</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300487,1230641745.html</t>
+          <t>/news,300487,1231151460.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>658</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>【调研快报】蓝晓科技接待中邮证券等多家机构调研</t>
+          <t>蓝晓科技本周深股通持股市值增加3447.37万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-23 20:08</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300487,1230608625.html</t>
+          <t>/news,300487,1230723370.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>蓝晓科技：截至本公告日 田晓军累计质押股数为228万股</t>
+          <t>蓝晓科技09月23日获深股通增持18.39万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,12 +2877,12 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-23 19:00</t>
+          <t>09-24 07:58</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300487,1230576550.html</t>
+          <t>/news,300487,1230641745.html</t>
         </is>
       </c>
     </row>
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>蓝晓科技09月22日获深股通增持7.65万股</t>
+          <t>【调研快报】蓝晓科技接待中邮证券等多家机构调研</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-23 07:54</t>
+          <t>09-23 20:08</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300487,1230234815.html</t>
+          <t>/news,300487,1230608625.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技：截至本公告日 田晓军累计质押股数为228万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-22 20:19</t>
+          <t>09-23 19:00</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300487,1230158647.html</t>
+          <t>/news,300487,1230576550.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>蓝晓科技09月21日获深股通增持7.92万股</t>
+          <t>蓝晓科技09月22日获深股通增持7.65万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-22 08:01</t>
+          <t>09-23 07:54</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300487,1229812628.html</t>
+          <t>/news,300487,1230234815.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>694</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蓝晓科技09月20日获深股通增持13.23万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-21 07:53</t>
+          <t>09-22 20:19</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300487,1229383091.html</t>
+          <t>/news,300487,1230158647.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
+          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-04 08:52</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300487,1242826544.html</t>
+          <t>/news,300487,1243513881.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>106</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
+          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300487,1242815890.html</t>
+          <t>/news,300487,1243411005.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
+          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-03 08:56</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300487,1242335116.html</t>
+          <t>/news,300487,1243405460.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
+          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-03 07:56</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300487,1242326587.html</t>
+          <t>/news,300487,1243319795.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>1967</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
+          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-02 20:38</t>
+          <t>11-04 19:23</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300487,1242248316.html</t>
+          <t>/news,300487,1243248866.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
+          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-02 08:55</t>
+          <t>11-04 08:52</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300487,1241810157.html</t>
+          <t>/news,300487,1242826544.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>156</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
+          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-02 07:57</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300487,1241802421.html</t>
+          <t>/news,300487,1242815890.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
+          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-03 08:56</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300487,1241306910.html</t>
+          <t>/news,300487,1242335116.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>151</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
+          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-03 07:56</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300487,1241296443.html</t>
+          <t>/news,300487,1242326587.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
+          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,29 +765,29 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-02 20:38</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300487,1241209949.html</t>
+          <t>/news,300487,1242248316.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>439</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>蓝晓科技：高级管理人员邓建康辞职</t>
+          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>10-31 17:54</t>
+          <t>11-02 08:55</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300487,1241177635.html</t>
+          <t>/news,300487,1241810157.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
+          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>10-31 08:59</t>
+          <t>11-02 07:57</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300487,1240797002.html</t>
+          <t>/news,300487,1241802421.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,29 +851,29 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
+          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300487,1240712956.html</t>
+          <t>/news,300487,1241306910.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,71 +883,71 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
+          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300487,1240707584.html</t>
+          <t>/news,300487,1241296443.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
+          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-30 13:59</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300487,1240705782.html</t>
+          <t>/news,300487,1241209949.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
+          <t>蓝晓科技：高级管理人员邓建康辞职</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,51 +957,51 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-31 17:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300487,1240601271.html</t>
+          <t>/news,300487,1241177635.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
+          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-28 11:19</t>
+          <t>10-31 08:59</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300487,1240242802.html</t>
+          <t>/news,300487,1240797002.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,61 +1011,61 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
+          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-28 09:18</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300487,1240064947.html</t>
+          <t>/news,300487,1240712956.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
+          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-28 07:47</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300487,1240047399.html</t>
+          <t>/news,300487,1240707584.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>景顺长城基金刘彦春调研蓝晓科技</t>
+          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-27 09:57</t>
+          <t>10-30 13:59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300487,1239582222.html</t>
+          <t>/news,300487,1240705782.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,7 +1107,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
+          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-27 08:57</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300487,1239507200.html</t>
+          <t>/news,300487,1240601271.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,39 +1139,39 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
+          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-28 11:19</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300487,1239499296.html</t>
+          <t>/news,300487,1240242802.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
+          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-26 22:39</t>
+          <t>10-28 09:18</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300487,1239454973.html</t>
+          <t>/news,300487,1240064947.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>305</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
+          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-26 21:30</t>
+          <t>10-28 07:47</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300487,1239444137.html</t>
+          <t>/news,300487,1240047399.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
+          <t>景顺长城基金刘彦春调研蓝晓科技</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-26 19:32</t>
+          <t>10-27 09:57</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300487,1239399515.html</t>
+          <t>/news,300487,1239582222.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
+          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-26 18:50</t>
+          <t>10-27 08:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300487,1239385772.html</t>
+          <t>/news,300487,1239507200.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>国海证券给予蓝晓科技买入评级</t>
+          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-26 17:52</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300487,1239368636.html</t>
+          <t>/news,300487,1239499296.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>421</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
+          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 08:54</t>
+          <t>10-26 22:39</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300487,1238979058.html</t>
+          <t>/news,300487,1239454973.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
+          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-26 21:30</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300487,1238967838.html</t>
+          <t>/news,300487,1239444137.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>329</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
+          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 19:32</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300487,1238867877.html</t>
+          <t>/news,300487,1239399515.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>443</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
+          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-25 14:51</t>
+          <t>10-26 18:50</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300487,1238772466.html</t>
+          <t>/news,300487,1239385772.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
+          <t>国海证券给予蓝晓科技买入评级</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-25 14:47</t>
+          <t>10-26 17:52</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300487,1238766498.html</t>
+          <t>/news,300487,1239368636.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
+          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-25 09:16</t>
+          <t>10-26 08:54</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300487,1238467589.html</t>
+          <t>/news,300487,1238979058.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>404</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
+          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-25 09:09</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300487,1238463911.html</t>
+          <t>/news,300487,1238967838.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
+          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300487,1238459621.html</t>
+          <t>/news,300487,1238867877.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>191</t>
+          <t>477</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
+          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,19 +1597,19 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 08:53</t>
+          <t>10-25 14:51</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300487,1238458231.html</t>
+          <t>/news,300487,1238772466.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
+          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 14:47</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300487,1238448856.html</t>
+          <t>/news,300487,1238766498.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
+          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-24 23:07</t>
+          <t>10-25 09:16</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300487,1238415050.html</t>
+          <t>/news,300487,1238467589.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>440</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
+          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-24 19:52</t>
+          <t>10-25 09:09</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300487,1238354985.html</t>
+          <t>/news,300487,1238463911.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>536</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
+          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-24 19:41</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300487,1238351074.html</t>
+          <t>/news,300487,1238459621.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
+          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-24 19:39</t>
+          <t>10-25 08:53</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300487,1238354298.html</t>
+          <t>/news,300487,1238458231.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>405</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
+          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300487,1237859908.html</t>
+          <t>/news,300487,1238448856.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
+          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-22 07:50</t>
+          <t>10-24 23:07</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300487,1237797045.html</t>
+          <t>/news,300487,1238415050.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>409</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
+          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,61 +1853,61 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-24 19:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300487,1237349012.html</t>
+          <t>/news,300487,1238354985.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
+          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-24 19:41</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300487,1236889696.html</t>
+          <t>/news,300487,1238351074.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>398</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
+          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-19 18:02</t>
+          <t>10-24 19:39</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300487,1236766569.html</t>
+          <t>/news,300487,1238354298.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-19 16:40</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300487,1236751518.html</t>
+          <t>/news,300487,1237859908.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
+          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-22 07:50</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300487,1236438954.html</t>
+          <t>/news,300487,1237797045.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>1875</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
+          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-18 12:37</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300487,1236214520.html</t>
+          <t>/news,300487,1237349012.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
+          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-18 07:51</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300487,1236042428.html</t>
+          <t>/news,300487,1236889696.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>454</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
+          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-17 20:39</t>
+          <t>10-19 18:02</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300487,1235986795.html</t>
+          <t>/news,300487,1236766569.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-19 16:40</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300487,1235954029.html</t>
+          <t>/news,300487,1236751518.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-17 17:57</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300487,1235953563.html</t>
+          <t>/news,300487,1236438954.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>1901</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
+          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-18 12:37</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300487,1235576161.html</t>
+          <t>/news,300487,1236214520.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
+          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-18 07:51</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300487,1235512228.html</t>
+          <t>/news,300487,1236042428.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>330</t>
+          <t>458</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
+          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,19 +2237,19 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-14 18:01</t>
+          <t>10-17 20:39</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300487,1235409628.html</t>
+          <t>/news,300487,1235986795.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,7 +2259,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
+          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-14 07:50</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300487,1235082168.html</t>
+          <t>/news,300487,1235954029.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-13 18:01</t>
+          <t>10-17 17:57</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300487,1234947863.html</t>
+          <t>/news,300487,1235953563.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-13 17:53</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300487,1234946457.html</t>
+          <t>/news,300487,1235576161.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
+          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-13 08:04</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300487,1234648221.html</t>
+          <t>/news,300487,1235512228.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>335</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-12 17:47</t>
+          <t>10-14 18:01</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300487,1234527694.html</t>
+          <t>/news,300487,1235409628.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
+          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-14 07:50</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300487,1234212951.html</t>
+          <t>/news,300487,1235082168.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>482</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
+          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,24 +2461,24 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-11 07:51</t>
+          <t>10-13 18:01</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300487,1233836972.html</t>
+          <t>/news,300487,1234947863.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-10 19:43</t>
+          <t>10-13 17:53</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300487,1233749984.html</t>
+          <t>/news,300487,1234946457.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
+          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-10 19:42</t>
+          <t>10-13 08:04</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300487,1233750103.html</t>
+          <t>/news,300487,1234648221.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>299</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,39 +2547,39 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-12 17:47</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300487,1233317225.html</t>
+          <t>/news,300487,1234527694.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>884</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>蓝晓科技董事韦卫军减持1万股 减持金额75.74万元</t>
+          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>09-30 20:28</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300487,1232881148.html</t>
+          <t>/news,300487,1234212951.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>蓝晓科技09月29日获深股通增持36.66万股</t>
+          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>09-30 07:44</t>
+          <t>10-11 07:51</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300487,1232534949.html</t>
+          <t>/news,300487,1233836972.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>09-29 17:56</t>
+          <t>10-10 19:43</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300487,1232437006.html</t>
+          <t>/news,300487,1233749984.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>蓝晓科技09月28日获深股通增持33.65万股</t>
+          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,61 +2685,61 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>09-29 07:50</t>
+          <t>10-10 19:42</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300487,1232087804.html</t>
+          <t>/news,300487,1233750103.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>蓝晓科技：“蓝晓转债”赎回登记日为2022年10月21日 赎回价格为100.74 元/张</t>
+          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>09-28 18:16</t>
+          <t>10-09 14:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300487,1231980331.html</t>
+          <t>/news,300487,1233317225.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>886</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>蓝晓科技09月27日被深股通减持3.55万股</t>
+          <t>蓝晓科技董事韦卫军减持1万股 减持金额75.74万元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-28 07:51</t>
+          <t>09-30 20:28</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300487,1231637507.html</t>
+          <t>/news,300487,1232881148.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>蓝晓科技09月26日获深股通增持22.89万股</t>
+          <t>蓝晓科技09月29日获深股通增持36.66万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-27 07:54</t>
+          <t>09-30 07:44</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300487,1231248069.html</t>
+          <t>/news,300487,1232534949.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-26 18:41</t>
+          <t>09-29 17:56</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300487,1231151460.html</t>
+          <t>/news,300487,1232437006.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加3447.37万元，居塑料制品板块第二</t>
+          <t>蓝晓科技09月28日获深股通增持33.65万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-29 07:50</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300487,1230723370.html</t>
+          <t>/news,300487,1232087804.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>蓝晓科技09月23日获深股通增持18.39万股</t>
+          <t>蓝晓科技：“蓝晓转债”赎回登记日为2022年10月21日 赎回价格为100.74 元/张</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-24 07:58</t>
+          <t>09-28 18:16</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300487,1230641745.html</t>
+          <t>/news,300487,1231980331.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>【调研快报】蓝晓科技接待中邮证券等多家机构调研</t>
+          <t>蓝晓科技09月27日被深股通减持3.55万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-23 20:08</t>
+          <t>09-28 07:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300487,1230608625.html</t>
+          <t>/news,300487,1231637507.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>蓝晓科技：截至本公告日 田晓军累计质押股数为228万股</t>
+          <t>蓝晓科技09月26日获深股通增持22.89万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-23 19:00</t>
+          <t>09-27 07:54</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300487,1230576550.html</t>
+          <t>/news,300487,1231248069.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>蓝晓科技09月22日获深股通增持7.65万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,44 +2973,44 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-23 07:54</t>
+          <t>09-26 18:41</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300487,1230234815.html</t>
+          <t>/news,300487,1231151460.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>661</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技本周深股通持股市值增加3447.37万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-22 20:19</t>
+          <t>09-25 14:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300487,1230158647.html</t>
+          <t>/news,300487,1230723370.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>118</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
+          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300487,1243513881.html</t>
+          <t>/news,300487,1243983902.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
+          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 08:29</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300487,1243411005.html</t>
+          <t>/news,300487,1243979798.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
+          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300487,1243405460.html</t>
+          <t>/news,300487,1243976322.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
+          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300487,1243319795.html</t>
+          <t>/news,300487,1243513881.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1967</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
+          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-04 19:23</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300487,1243248866.html</t>
+          <t>/news,300487,1243411005.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
+          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-04 08:52</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300487,1242826544.html</t>
+          <t>/news,300487,1243405460.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
+          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,29 +669,29 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300487,1242815890.html</t>
+          <t>/news,300487,1243319795.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
+          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-03 08:56</t>
+          <t>11-04 19:23</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300487,1242335116.html</t>
+          <t>/news,300487,1243248866.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
+          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-03 07:56</t>
+          <t>11-04 08:52</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300487,1242326587.html</t>
+          <t>/news,300487,1242826544.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
+          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-02 20:38</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300487,1242248316.html</t>
+          <t>/news,300487,1242815890.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>186</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
+          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-02 08:55</t>
+          <t>11-03 08:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300487,1241810157.html</t>
+          <t>/news,300487,1242335116.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>157</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
+          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-02 07:57</t>
+          <t>11-03 07:56</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300487,1241802421.html</t>
+          <t>/news,300487,1242326587.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
+          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 20:38</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300487,1241306910.html</t>
+          <t>/news,300487,1242248316.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
+          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 08:55</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300487,1241296443.html</t>
+          <t>/news,300487,1241810157.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
+          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,29 +925,29 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-02 07:57</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300487,1241209949.html</t>
+          <t>/news,300487,1241802421.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>蓝晓科技：高级管理人员邓建康辞职</t>
+          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>10-31 17:54</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300487,1241177635.html</t>
+          <t>/news,300487,1241306910.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
+          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,83 +989,83 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>10-31 08:59</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300487,1240797002.html</t>
+          <t>/news,300487,1241296443.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>487</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
+          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300487,1240712956.html</t>
+          <t>/news,300487,1241209949.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
+          <t>蓝晓科技：高级管理人员邓建康辞职</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-31 17:54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300487,1240707584.html</t>
+          <t>/news,300487,1241177635.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,29 +1075,29 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
+          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-30 13:59</t>
+          <t>10-31 08:59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300487,1240705782.html</t>
+          <t>/news,300487,1240797002.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1107,61 +1107,61 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
+          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300487,1240601271.html</t>
+          <t>/news,300487,1240712956.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
+          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-28 11:19</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300487,1240242802.html</t>
+          <t>/news,300487,1240707584.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,39 +1171,39 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
+          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-28 09:18</t>
+          <t>10-30 13:59</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300487,1240064947.html</t>
+          <t>/news,300487,1240705782.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>305</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
+          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-28 07:47</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300487,1240047399.html</t>
+          <t>/news,300487,1240601271.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>472</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>景顺长城基金刘彦春调研蓝晓科技</t>
+          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-27 09:57</t>
+          <t>10-28 11:19</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300487,1239582222.html</t>
+          <t>/news,300487,1240242802.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
+          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,12 +1277,12 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-27 08:57</t>
+          <t>10-28 09:18</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300487,1239507200.html</t>
+          <t>/news,300487,1240064947.html</t>
         </is>
       </c>
     </row>
@@ -1294,12 +1294,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
+          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-28 07:47</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300487,1239499296.html</t>
+          <t>/news,300487,1240047399.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
+          <t>景顺长城基金刘彦春调研蓝晓科技</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-26 22:39</t>
+          <t>10-27 09:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300487,1239454973.html</t>
+          <t>/news,300487,1239582222.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
+          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,83 +1373,83 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-26 21:30</t>
+          <t>10-27 08:57</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300487,1239444137.html</t>
+          <t>/news,300487,1239507200.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
+          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-26 19:32</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300487,1239399515.html</t>
+          <t>/news,300487,1239499296.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
+          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 18:50</t>
+          <t>10-26 22:39</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300487,1239385772.html</t>
+          <t>/news,300487,1239454973.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>国海证券给予蓝晓科技买入评级</t>
+          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 17:52</t>
+          <t>10-26 21:30</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300487,1239368636.html</t>
+          <t>/news,300487,1239444137.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,103 +1491,103 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
+          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 08:54</t>
+          <t>10-26 19:32</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300487,1238979058.html</t>
+          <t>/news,300487,1239399515.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>272</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
+          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-26 18:50</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300487,1238967838.html</t>
+          <t>/news,300487,1239385772.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
+          <t>国海证券给予蓝晓科技买入评级</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 17:52</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300487,1238867877.html</t>
+          <t>/news,300487,1239368636.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>477</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
+          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,93 +1597,93 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-25 14:51</t>
+          <t>10-26 08:54</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300487,1238772466.html</t>
+          <t>/news,300487,1238979058.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
+          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-25 14:47</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300487,1238766498.html</t>
+          <t>/news,300487,1238967838.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
+          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 09:16</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300487,1238467589.html</t>
+          <t>/news,300487,1238867877.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
+          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,19 +1693,19 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 09:09</t>
+          <t>10-25 14:51</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300487,1238463911.html</t>
+          <t>/news,300487,1238772466.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
+          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-25 14:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300487,1238459621.html</t>
+          <t>/news,300487,1238766498.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>197</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
+          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 08:53</t>
+          <t>10-25 09:16</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300487,1238458231.html</t>
+          <t>/news,300487,1238467589.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>446</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
+          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,61 +1789,61 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 09:09</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300487,1238448856.html</t>
+          <t>/news,300487,1238463911.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
+          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-24 23:07</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300487,1238415050.html</t>
+          <t>/news,300487,1238459621.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>409</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
+          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,51 +1853,51 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-24 19:52</t>
+          <t>10-25 08:53</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300487,1238354985.html</t>
+          <t>/news,300487,1238458231.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>184</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
+          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-24 19:41</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300487,1238351074.html</t>
+          <t>/news,300487,1238448856.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>398</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
+          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 19:39</t>
+          <t>10-24 23:07</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300487,1238354298.html</t>
+          <t>/news,300487,1238415050.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
+          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 19:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300487,1237859908.html</t>
+          <t>/news,300487,1238354985.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>554</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
+          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-22 07:50</t>
+          <t>10-24 19:41</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300487,1237797045.html</t>
+          <t>/news,300487,1238351074.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>403</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
+          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-24 19:39</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300487,1237349012.html</t>
+          <t>/news,300487,1238354298.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
+          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300487,1236889696.html</t>
+          <t>/news,300487,1237859908.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>445</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
+          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,12 +2077,12 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-19 18:02</t>
+          <t>10-22 07:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300487,1236766569.html</t>
+          <t>/news,300487,1237797045.html</t>
         </is>
       </c>
     </row>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,29 +2109,29 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-19 16:40</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300487,1236751518.html</t>
+          <t>/news,300487,1237349012.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
+          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300487,1236438954.html</t>
+          <t>/news,300487,1236889696.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>1901</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
+          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-18 12:37</t>
+          <t>10-19 18:02</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300487,1236214520.html</t>
+          <t>/news,300487,1236766569.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-18 07:51</t>
+          <t>10-19 16:40</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300487,1236042428.html</t>
+          <t>/news,300487,1236751518.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>458</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
+          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-17 20:39</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300487,1235986795.html</t>
+          <t>/news,300487,1236438954.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>1906</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
+          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,19 +2269,19 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 12:37</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300487,1235954029.html</t>
+          <t>/news,300487,1236214520.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,51 +2301,51 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-17 17:57</t>
+          <t>10-18 07:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300487,1235953563.html</t>
+          <t>/news,300487,1236042428.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
+          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 20:39</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300487,1235576161.html</t>
+          <t>/news,300487,1235986795.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
+          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300487,1235512228.html</t>
+          <t>/news,300487,1235954029.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>335</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-14 18:01</t>
+          <t>10-17 17:57</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300487,1235409628.html</t>
+          <t>/news,300487,1235953563.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,39 +2419,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
+          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-14 07:50</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300487,1235082168.html</t>
+          <t>/news,300487,1235576161.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>482</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
+          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-13 18:01</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300487,1234947863.html</t>
+          <t>/news,300487,1235512228.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-13 17:53</t>
+          <t>10-14 18:01</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300487,1234946457.html</t>
+          <t>/news,300487,1235409628.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
+          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-13 08:04</t>
+          <t>10-14 07:50</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300487,1234648221.html</t>
+          <t>/news,300487,1235082168.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>299</t>
+          <t>485</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-12 17:47</t>
+          <t>10-13 18:01</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300487,1234527694.html</t>
+          <t>/news,300487,1234947863.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-13 17:53</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300487,1234212951.html</t>
+          <t>/news,300487,1234946457.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>292</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
+          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-11 07:51</t>
+          <t>10-13 08:04</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300487,1233836972.html</t>
+          <t>/news,300487,1234648221.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-10 19:43</t>
+          <t>10-12 17:47</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300487,1233749984.html</t>
+          <t>/news,300487,1234527694.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
+          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-10 19:42</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300487,1233750103.html</t>
+          <t>/news,300487,1234212951.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
+          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-11 07:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300487,1233317225.html</t>
+          <t>/news,300487,1233836972.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>蓝晓科技董事韦卫军减持1万股 减持金额75.74万元</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>09-30 20:28</t>
+          <t>10-10 19:43</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300487,1232881148.html</t>
+          <t>/news,300487,1233749984.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>蓝晓科技09月29日获深股通增持36.66万股</t>
+          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>09-30 07:44</t>
+          <t>10-10 19:42</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300487,1232534949.html</t>
+          <t>/news,300487,1233750103.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>09-29 17:56</t>
+          <t>10-09 14:06</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300487,1232437006.html</t>
+          <t>/news,300487,1233317225.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>886</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>蓝晓科技09月28日获深股通增持33.65万股</t>
+          <t>蓝晓科技董事韦卫军减持1万股 减持金额75.74万元</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-29 07:50</t>
+          <t>09-30 20:28</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300487,1232087804.html</t>
+          <t>/news,300487,1232881148.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>蓝晓科技：“蓝晓转债”赎回登记日为2022年10月21日 赎回价格为100.74 元/张</t>
+          <t>蓝晓科技09月29日获深股通增持36.66万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-28 18:16</t>
+          <t>09-30 07:44</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300487,1231980331.html</t>
+          <t>/news,300487,1232534949.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>蓝晓科技09月27日被深股通减持3.55万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-28 07:51</t>
+          <t>09-29 17:56</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300487,1231637507.html</t>
+          <t>/news,300487,1232437006.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>蓝晓科技09月26日获深股通增持22.89万股</t>
+          <t>蓝晓科技09月28日获深股通增持33.65万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-27 07:54</t>
+          <t>09-29 07:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300487,1231248069.html</t>
+          <t>/news,300487,1232087804.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>372</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技：“蓝晓转债”赎回登记日为2022年10月21日 赎回价格为100.74 元/张</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-26 18:41</t>
+          <t>09-28 18:16</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300487,1231151460.html</t>
+          <t>/news,300487,1231980331.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加3447.37万元，居塑料制品板块第二</t>
+          <t>蓝晓科技09月27日被深股通减持3.55万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-25 14:06</t>
+          <t>09-28 07:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300487,1230723370.html</t>
+          <t>/news,300487,1231637507.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>138</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -489,7 +489,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -553,7 +553,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -617,7 +617,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -649,7 +649,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -681,7 +681,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -841,7 +841,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1321,7 +1321,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1449,7 +1449,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1545,7 +1545,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2249,7 +2249,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1906</t>
+          <t>1908</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2825,7 +2825,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>886</t>
+          <t>885</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2857,7 +2857,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2889,7 +2889,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2953,7 +2953,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>372</t>
+          <t>369</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2985,7 +2985,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>361</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">

--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>138</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
+          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300487,1243983902.html</t>
+          <t>/news,300487,1244437663.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>154</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
+          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-08 08:29</t>
+          <t>11-09 07:47</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300487,1243979798.html</t>
+          <t>/news,300487,1244427580.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
+          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300487,1243976322.html</t>
+          <t>/news,300487,1243983902.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
+          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:29</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300487,1243513881.html</t>
+          <t>/news,300487,1243979798.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,29 +595,29 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
+          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300487,1243411005.html</t>
+          <t>/news,300487,1243976322.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
+          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300487,1243405460.html</t>
+          <t>/news,300487,1243513881.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,61 +659,61 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
+          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300487,1243319795.html</t>
+          <t>/news,300487,1243411005.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
+          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-04 19:23</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300487,1243248866.html</t>
+          <t>/news,300487,1243405460.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
+          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,29 +733,29 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-04 08:52</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300487,1242826544.html</t>
+          <t>/news,300487,1243319795.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>2061</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
+          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,19 +765,19 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-04 19:23</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300487,1242815890.html</t>
+          <t>/news,300487,1243248866.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>186</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
+          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-03 08:56</t>
+          <t>11-04 08:52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300487,1242335116.html</t>
+          <t>/news,300487,1242826544.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>157</t>
+          <t>164</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
+          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,29 +829,29 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-03 07:56</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300487,1242326587.html</t>
+          <t>/news,300487,1242815890.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
+          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-02 20:38</t>
+          <t>11-03 08:56</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300487,1242248316.html</t>
+          <t>/news,300487,1242335116.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>159</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
+          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-02 08:55</t>
+          <t>11-03 07:56</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300487,1241810157.html</t>
+          <t>/news,300487,1242326587.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
+          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 07:57</t>
+          <t>11-02 20:38</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300487,1241802421.html</t>
+          <t>/news,300487,1242248316.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
+          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:55</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300487,1241306910.html</t>
+          <t>/news,300487,1241810157.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
+          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,29 +989,29 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300487,1241296443.html</t>
+          <t>/news,300487,1241802421.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>487</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
+          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300487,1241209949.html</t>
+          <t>/news,300487,1241306910.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>蓝晓科技：高级管理人员邓建康辞职</t>
+          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>10-31 17:54</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300487,1241177635.html</t>
+          <t>/news,300487,1241296443.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
+          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 08:59</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300487,1240797002.html</t>
+          <t>/news,300487,1241209949.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
+          <t>蓝晓科技：高级管理人员邓建康辞职</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 17:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300487,1240712956.html</t>
+          <t>/news,300487,1241177635.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
+          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-31 08:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300487,1240707584.html</t>
+          <t>/news,300487,1240797002.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
+          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-30 13:59</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300487,1240705782.html</t>
+          <t>/news,300487,1240712956.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,39 +1203,39 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
+          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300487,1240601271.html</t>
+          <t>/news,300487,1240707584.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
+          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-28 11:19</t>
+          <t>10-30 13:59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300487,1240242802.html</t>
+          <t>/news,300487,1240705782.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
+          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-28 09:18</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300487,1240064947.html</t>
+          <t>/news,300487,1240601271.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>475</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
+          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 07:47</t>
+          <t>10-28 11:19</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300487,1240047399.html</t>
+          <t>/news,300487,1240242802.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>景顺长城基金刘彦春调研蓝晓科技</t>
+          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,29 +1341,29 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-27 09:57</t>
+          <t>10-28 09:18</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300487,1239582222.html</t>
+          <t>/news,300487,1240064947.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
+          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-27 08:57</t>
+          <t>10-28 07:47</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300487,1239507200.html</t>
+          <t>/news,300487,1240047399.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
+          <t>景顺长城基金刘彦春调研蓝晓科技</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-27 09:57</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300487,1239499296.html</t>
+          <t>/news,300487,1239582222.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
+          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-26 22:39</t>
+          <t>10-27 08:57</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300487,1239454973.html</t>
+          <t>/news,300487,1239507200.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
+          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,51 +1469,51 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-26 21:30</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300487,1239444137.html</t>
+          <t>/news,300487,1239499296.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
+          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 19:32</t>
+          <t>10-26 22:39</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300487,1239399515.html</t>
+          <t>/news,300487,1239454973.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,29 +1523,29 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
+          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 18:50</t>
+          <t>10-26 21:30</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300487,1239385772.html</t>
+          <t>/news,300487,1239444137.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,29 +1555,29 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国海证券给予蓝晓科技买入评级</t>
+          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 17:52</t>
+          <t>10-26 19:32</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300487,1239368636.html</t>
+          <t>/news,300487,1239399515.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,39 +1587,39 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
+          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 08:54</t>
+          <t>10-26 18:50</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300487,1238979058.html</t>
+          <t>/news,300487,1239385772.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>254</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
+          <t>国海证券给予蓝晓科技买入评级</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-26 17:52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300487,1238967838.html</t>
+          <t>/news,300487,1239368636.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
+          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 08:54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300487,1238867877.html</t>
+          <t>/news,300487,1238979058.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
+          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-25 14:51</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300487,1238772466.html</t>
+          <t>/news,300487,1238967838.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
+          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,29 +1725,29 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 14:47</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300487,1238766498.html</t>
+          <t>/news,300487,1238867877.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>493</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
+          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,93 +1757,93 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 09:16</t>
+          <t>10-25 14:51</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300487,1238467589.html</t>
+          <t>/news,300487,1238772466.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>446</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
+          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 09:09</t>
+          <t>10-25 14:47</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300487,1238463911.html</t>
+          <t>/news,300487,1238766498.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>353</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
+          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-25 09:16</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300487,1238459621.html</t>
+          <t>/news,300487,1238467589.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
+          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 08:53</t>
+          <t>10-25 09:09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300487,1238458231.html</t>
+          <t>/news,300487,1238463911.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>184</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
+          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300487,1238448856.html</t>
+          <t>/news,300487,1238459621.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
+          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-24 23:07</t>
+          <t>10-25 08:53</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300487,1238415050.html</t>
+          <t>/news,300487,1238458231.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
+          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,19 +1949,19 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-24 19:52</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300487,1238354985.html</t>
+          <t>/news,300487,1238448856.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>554</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,39 +1971,39 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
+          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-24 19:41</t>
+          <t>10-24 23:07</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300487,1238351074.html</t>
+          <t>/news,300487,1238415050.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>403</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
+          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,51 +2013,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-24 19:39</t>
+          <t>10-24 19:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300487,1238354298.html</t>
+          <t>/news,300487,1238354985.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
+          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 19:41</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300487,1237859908.html</t>
+          <t>/news,300487,1238351074.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>445</t>
+          <t>410</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
+          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-22 07:50</t>
+          <t>10-24 19:39</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300487,1237797045.html</t>
+          <t>/news,300487,1238354298.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>422</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
+          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300487,1237349012.html</t>
+          <t>/news,300487,1237859908.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
+          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,29 +2141,29 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-22 07:50</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300487,1236889696.html</t>
+          <t>/news,300487,1237797045.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
+          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-19 18:02</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300487,1236766569.html</t>
+          <t>/news,300487,1237349012.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-19 16:40</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300487,1236751518.html</t>
+          <t>/news,300487,1236889696.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
+          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-19 18:02</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300487,1236438954.html</t>
+          <t>/news,300487,1236766569.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>1908</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-18 12:37</t>
+          <t>10-19 16:40</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300487,1236214520.html</t>
+          <t>/news,300487,1236751518.html</t>
         </is>
       </c>
     </row>
@@ -2291,7 +2291,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
+          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-18 07:51</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300487,1236042428.html</t>
+          <t>/news,300487,1236438954.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>1913</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
+          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-17 20:39</t>
+          <t>10-18 12:37</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300487,1235986795.html</t>
+          <t>/news,300487,1236214520.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
+          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 07:51</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300487,1235954029.html</t>
+          <t>/news,300487,1236042428.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 17:57</t>
+          <t>10-17 20:39</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300487,1235953563.html</t>
+          <t>/news,300487,1235986795.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,29 +2419,29 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
+          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300487,1235576161.html</t>
+          <t>/news,300487,1235954029.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-17 17:57</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300487,1235512228.html</t>
+          <t>/news,300487,1235953563.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
+          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-14 18:01</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300487,1235409628.html</t>
+          <t>/news,300487,1235576161.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>351</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
+          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-14 07:50</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300487,1235082168.html</t>
+          <t>/news,300487,1235512228.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>485</t>
+          <t>338</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
+          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-13 18:01</t>
+          <t>10-14 18:01</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300487,1234947863.html</t>
+          <t>/news,300487,1235409628.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-13 17:53</t>
+          <t>10-14 07:50</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300487,1234946457.html</t>
+          <t>/news,300487,1235082168.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>292</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
+          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,24 +2621,24 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-13 08:04</t>
+          <t>10-13 18:01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300487,1234648221.html</t>
+          <t>/news,300487,1234947863.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-12 17:47</t>
+          <t>10-13 17:53</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300487,1234527694.html</t>
+          <t>/news,300487,1234946457.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
+          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-13 08:04</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300487,1234212951.html</t>
+          <t>/news,300487,1234648221.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,19 +2717,19 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-11 07:51</t>
+          <t>10-12 17:47</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300487,1233836972.html</t>
+          <t>/news,300487,1234527694.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -2739,7 +2739,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-10 19:43</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300487,1233749984.html</t>
+          <t>/news,300487,1234212951.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>347</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
+          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-10 19:42</t>
+          <t>10-11 07:51</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300487,1233750103.html</t>
+          <t>/news,300487,1233836972.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,39 +2803,39 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-10 19:43</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300487,1233317225.html</t>
+          <t>/news,300487,1233749984.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>885</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>蓝晓科技董事韦卫军减持1万股 减持金额75.74万元</t>
+          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>09-30 20:28</t>
+          <t>10-10 19:42</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300487,1232881148.html</t>
+          <t>/news,300487,1233750103.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>521</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>蓝晓科技09月29日获深股通增持36.66万股</t>
+          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>09-30 07:44</t>
+          <t>10-09 14:06</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300487,1232534949.html</t>
+          <t>/news,300487,1233317225.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>887</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技董事韦卫军减持1万股 减持金额75.74万元</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-29 17:56</t>
+          <t>09-30 20:28</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300487,1232437006.html</t>
+          <t>/news,300487,1232881148.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>蓝晓科技09月28日获深股通增持33.65万股</t>
+          <t>蓝晓科技09月29日获深股通增持36.66万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-29 07:50</t>
+          <t>09-30 07:44</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300487,1232087804.html</t>
+          <t>/news,300487,1232534949.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>369</t>
+          <t>327</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>蓝晓科技：“蓝晓转债”赎回登记日为2022年10月21日 赎回价格为100.74 元/张</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-28 18:16</t>
+          <t>09-29 17:56</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300487,1231980331.html</t>
+          <t>/news,300487,1232437006.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蓝晓科技09月27日被深股通减持3.55万股</t>
+          <t>蓝晓科技09月28日获深股通增持33.65万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-28 07:51</t>
+          <t>09-29 07:50</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300487,1231637507.html</t>
+          <t>/news,300487,1232087804.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>124</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
+          <t>蓝晓科技：融资净买入1463万元，融资余额2.32亿元（11-09）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:54</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300487,1244437663.html</t>
+          <t>/news,300487,1244900877.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>154</t>
+          <t>152</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
+          <t>蓝晓科技11月09日获深股通增持17.32万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-09 07:47</t>
+          <t>11-10 07:56</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300487,1244427580.html</t>
+          <t>/news,300487,1244892569.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
+          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,51 +541,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300487,1243983902.html</t>
+          <t>/news,300487,1244437663.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
+          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-08 08:29</t>
+          <t>11-09 07:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300487,1243979798.html</t>
+          <t>/news,300487,1244427580.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
+          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300487,1243976322.html</t>
+          <t>/news,300487,1243983902.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
+          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:29</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300487,1243513881.html</t>
+          <t>/news,300487,1243979798.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,29 +659,29 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
+          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300487,1243411005.html</t>
+          <t>/news,300487,1243976322.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,29 +691,29 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
+          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300487,1243405460.html</t>
+          <t>/news,300487,1243513881.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,61 +723,61 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
+          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300487,1243319795.html</t>
+          <t>/news,300487,1243411005.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2061</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
+          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-04 19:23</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300487,1243248866.html</t>
+          <t>/news,300487,1243405460.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
+          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,29 +797,29 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-04 08:52</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300487,1242826544.html</t>
+          <t>/news,300487,1243319795.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>164</t>
+          <t>2109</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
+          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-04 19:23</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300487,1242815890.html</t>
+          <t>/news,300487,1243248866.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
+          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-03 08:56</t>
+          <t>11-04 08:52</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300487,1242335116.html</t>
+          <t>/news,300487,1242826544.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>159</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
+          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,29 +893,29 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-03 07:56</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300487,1242326587.html</t>
+          <t>/news,300487,1242815890.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
+          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-02 20:38</t>
+          <t>11-03 08:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300487,1242248316.html</t>
+          <t>/news,300487,1242335116.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>160</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
+          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-02 08:55</t>
+          <t>11-03 07:56</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300487,1241810157.html</t>
+          <t>/news,300487,1242326587.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
+          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 07:57</t>
+          <t>11-02 20:38</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300487,1241802421.html</t>
+          <t>/news,300487,1242248316.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>185</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
+          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:55</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300487,1241306910.html</t>
+          <t>/news,300487,1241810157.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
+          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,29 +1053,29 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:57</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300487,1241296443.html</t>
+          <t>/news,300487,1241802421.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
+          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300487,1241209949.html</t>
+          <t>/news,300487,1241306910.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>蓝晓科技：高级管理人员邓建康辞职</t>
+          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>10-31 17:54</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300487,1241177635.html</t>
+          <t>/news,300487,1241296443.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
+          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,51 +1149,51 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 08:59</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300487,1240797002.html</t>
+          <t>/news,300487,1241209949.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
+          <t>蓝晓科技：高级管理人员邓建康辞职</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 17:54</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300487,1240712956.html</t>
+          <t>/news,300487,1241177635.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>334</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,29 +1203,29 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
+          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-31 08:59</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300487,1240707584.html</t>
+          <t>/news,300487,1240797002.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
+          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-30 13:59</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300487,1240705782.html</t>
+          <t>/news,300487,1240712956.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>336</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,39 +1267,39 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
+          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300487,1240601271.html</t>
+          <t>/news,300487,1240707584.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>475</t>
+          <t>281</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
+          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-28 11:19</t>
+          <t>10-30 13:59</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300487,1240242802.html</t>
+          <t>/news,300487,1240705782.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>360</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
+          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,51 +1341,51 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-28 09:18</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300487,1240064947.html</t>
+          <t>/news,300487,1240601271.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>476</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
+          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 07:47</t>
+          <t>10-28 11:19</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300487,1240047399.html</t>
+          <t>/news,300487,1240242802.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>436</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>景顺长城基金刘彦春调研蓝晓科技</t>
+          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-27 09:57</t>
+          <t>10-28 09:18</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300487,1239582222.html</t>
+          <t>/news,300487,1240064947.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
+          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-27 08:57</t>
+          <t>10-28 07:47</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300487,1239507200.html</t>
+          <t>/news,300487,1240047399.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>448</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
+          <t>景顺长城基金刘彦春调研蓝晓科技</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-27 09:57</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300487,1239499296.html</t>
+          <t>/news,300487,1239582222.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
+          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-26 22:39</t>
+          <t>10-27 08:57</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300487,1239454973.html</t>
+          <t>/news,300487,1239507200.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
+          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,51 +1533,51 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-26 21:30</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300487,1239444137.html</t>
+          <t>/news,300487,1239499296.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>441</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
+          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 19:32</t>
+          <t>10-26 22:39</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300487,1239399515.html</t>
+          <t>/news,300487,1239454973.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>311</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,29 +1587,29 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
+          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 18:50</t>
+          <t>10-26 21:30</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300487,1239385772.html</t>
+          <t>/news,300487,1239444137.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,29 +1619,29 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国海证券给予蓝晓科技买入评级</t>
+          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 17:52</t>
+          <t>10-26 19:32</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300487,1239368636.html</t>
+          <t>/news,300487,1239399515.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,39 +1651,39 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
+          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 08:54</t>
+          <t>10-26 18:50</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300487,1238979058.html</t>
+          <t>/news,300487,1239385772.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
+          <t>国海证券给予蓝晓科技买入评级</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,61 +1693,61 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-26 17:52</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300487,1238967838.html</t>
+          <t>/news,300487,1239368636.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
+          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 08:54</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300487,1238867877.html</t>
+          <t>/news,300487,1238979058.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>493</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
+          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,29 +1757,29 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-25 14:51</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300487,1238772466.html</t>
+          <t>/news,300487,1238967838.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
+          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,29 +1789,29 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 14:47</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300487,1238766498.html</t>
+          <t>/news,300487,1238867877.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>353</t>
+          <t>505</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
+          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,93 +1821,93 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 09:16</t>
+          <t>10-25 14:51</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300487,1238467589.html</t>
+          <t>/news,300487,1238772466.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>231</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
+          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 09:09</t>
+          <t>10-25 14:47</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300487,1238463911.html</t>
+          <t>/news,300487,1238766498.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
+          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-25 09:16</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300487,1238459621.html</t>
+          <t>/news,300487,1238467589.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
+          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,19 +1917,19 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 08:53</t>
+          <t>10-25 09:09</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300487,1238458231.html</t>
+          <t>/news,300487,1238463911.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1939,39 +1939,39 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
+          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300487,1238448856.html</t>
+          <t>/news,300487,1238459621.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
+          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-24 23:07</t>
+          <t>10-25 08:53</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300487,1238415050.html</t>
+          <t>/news,300487,1238458231.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
+          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,19 +2013,19 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-24 19:52</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300487,1238354985.html</t>
+          <t>/news,300487,1238448856.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,39 +2035,39 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
+          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 19:41</t>
+          <t>10-24 23:07</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300487,1238351074.html</t>
+          <t>/news,300487,1238415050.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>417</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
+          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,51 +2077,51 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-24 19:39</t>
+          <t>10-24 19:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300487,1238354298.html</t>
+          <t>/news,300487,1238354985.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>422</t>
+          <t>557</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
+          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 19:41</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300487,1237859908.html</t>
+          <t>/news,300487,1238351074.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,7 +2131,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
+          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,19 +2141,19 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-22 07:50</t>
+          <t>10-24 19:39</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300487,1237797045.html</t>
+          <t>/news,300487,1238354298.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,39 +2163,39 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
+          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300487,1237349012.html</t>
+          <t>/news,300487,1237859908.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>447</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
+          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,29 +2205,29 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-22 07:50</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300487,1236889696.html</t>
+          <t>/news,300487,1237797045.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
+          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-19 18:02</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300487,1236766569.html</t>
+          <t>/news,300487,1237349012.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-19 16:40</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300487,1236751518.html</t>
+          <t>/news,300487,1236889696.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>376</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
+          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-19 18:02</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300487,1236438954.html</t>
+          <t>/news,300487,1236766569.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>1913</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,19 +2333,19 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-18 12:37</t>
+          <t>10-19 16:40</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300487,1236214520.html</t>
+          <t>/news,300487,1236751518.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -2355,7 +2355,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
+          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-18 07:51</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300487,1236042428.html</t>
+          <t>/news,300487,1236438954.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>462</t>
+          <t>1920</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
+          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-17 20:39</t>
+          <t>10-18 12:37</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300487,1235986795.html</t>
+          <t>/news,300487,1236214520.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
+          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 07:51</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300487,1235954029.html</t>
+          <t>/news,300487,1236042428.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>463</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 17:57</t>
+          <t>10-17 20:39</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300487,1235953563.html</t>
+          <t>/news,300487,1235986795.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,29 +2483,29 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
+          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300487,1235576161.html</t>
+          <t>/news,300487,1235954029.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>351</t>
+          <t>250</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-17 17:57</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300487,1235512228.html</t>
+          <t>/news,300487,1235953563.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>338</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
+          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-14 18:01</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300487,1235409628.html</t>
+          <t>/news,300487,1235576161.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
+          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-14 07:50</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300487,1235082168.html</t>
+          <t>/news,300487,1235512228.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
+          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,29 +2621,29 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-13 18:01</t>
+          <t>10-14 18:01</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300487,1234947863.html</t>
+          <t>/news,300487,1235409628.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-13 17:53</t>
+          <t>10-14 07:50</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300487,1234946457.html</t>
+          <t>/news,300487,1235082168.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
+          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,24 +2685,24 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-13 08:04</t>
+          <t>10-13 18:01</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300487,1234648221.html</t>
+          <t>/news,300487,1234947863.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-12 17:47</t>
+          <t>10-13 17:53</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300487,1234527694.html</t>
+          <t>/news,300487,1234946457.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
+          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-13 08:04</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300487,1234212951.html</t>
+          <t>/news,300487,1234648221.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>347</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-11 07:51</t>
+          <t>10-12 17:47</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300487,1233836972.html</t>
+          <t>/news,300487,1234527694.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-10 19:43</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300487,1233749984.html</t>
+          <t>/news,300487,1234212951.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
+          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-10 19:42</t>
+          <t>10-11 07:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300487,1233750103.html</t>
+          <t>/news,300487,1233836972.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>289</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,39 +2867,39 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-10 19:43</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300487,1233317225.html</t>
+          <t>/news,300487,1233749984.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>887</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>蓝晓科技董事韦卫军减持1万股 减持金额75.74万元</t>
+          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>09-30 20:28</t>
+          <t>10-10 19:42</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300487,1232881148.html</t>
+          <t>/news,300487,1233750103.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>蓝晓科技09月29日获深股通增持36.66万股</t>
+          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>09-30 07:44</t>
+          <t>10-09 14:06</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300487,1232534949.html</t>
+          <t>/news,300487,1233317225.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>327</t>
+          <t>888</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技董事韦卫军减持1万股 减持金额75.74万元</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-29 17:56</t>
+          <t>09-30 20:28</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300487,1232437006.html</t>
+          <t>/news,300487,1232881148.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蓝晓科技09月28日获深股通增持33.65万股</t>
+          <t>蓝晓科技09月29日获深股通增持36.66万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-29 07:50</t>
+          <t>09-30 07:44</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300487,1232087804.html</t>
+          <t>/news,300487,1232534949.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>108</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1463万元，融资余额2.32亿元（11-09）</t>
+          <t>蓝晓科技：融资净偿还1096.2万元，融资余额2.21亿元（11-10）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-10 08:54</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300487,1244900877.html</t>
+          <t>/news,300487,1245424301.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>152</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>蓝晓科技11月09日获深股通增持17.32万股</t>
+          <t>蓝晓科技11月10日被深股通减持5.01万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-10 07:56</t>
+          <t>11-11 07:46</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300487,1244892569.html</t>
+          <t>/news,300487,1245411879.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
+          <t>蓝晓科技：融资净买入1463万元，融资余额2.32亿元（11-09）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300487,1244437663.html</t>
+          <t>/news,300487,1244900877.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
+          <t>蓝晓科技11月09日获深股通增持17.32万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,12 +573,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-09 07:47</t>
+          <t>11-10 07:56</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300487,1244427580.html</t>
+          <t>/news,300487,1244892569.html</t>
         </is>
       </c>
     </row>
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
+          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,51 +605,51 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300487,1243983902.html</t>
+          <t>/news,300487,1244437663.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
+          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-08 08:29</t>
+          <t>11-09 07:47</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300487,1243979798.html</t>
+          <t>/news,300487,1244427580.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
+          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300487,1243976322.html</t>
+          <t>/news,300487,1243983902.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>340</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
+          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:29</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300487,1243513881.html</t>
+          <t>/news,300487,1243979798.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,29 +723,29 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
+          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300487,1243411005.html</t>
+          <t>/news,300487,1243976322.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
+          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300487,1243405460.html</t>
+          <t>/news,300487,1243513881.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,61 +787,61 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
+          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300487,1243319795.html</t>
+          <t>/news,300487,1243411005.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2109</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
+          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-04 19:23</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300487,1243248866.html</t>
+          <t>/news,300487,1243405460.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
+          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,29 +861,29 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-04 08:52</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300487,1242826544.html</t>
+          <t>/news,300487,1243319795.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>2141</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
+          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-04 19:23</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300487,1242815890.html</t>
+          <t>/news,300487,1243248866.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
+          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-03 08:56</t>
+          <t>11-04 08:52</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300487,1242335116.html</t>
+          <t>/news,300487,1242826544.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>170</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
+          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-03 07:56</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300487,1242326587.html</t>
+          <t>/news,300487,1242815890.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
+          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-02 20:38</t>
+          <t>11-03 08:56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300487,1242248316.html</t>
+          <t>/news,300487,1242335116.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>185</t>
+          <t>161</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
+          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-02 08:55</t>
+          <t>11-03 07:56</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300487,1241810157.html</t>
+          <t>/news,300487,1242326587.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
+          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 07:57</t>
+          <t>11-02 20:38</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300487,1241802421.html</t>
+          <t>/news,300487,1242248316.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
+          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:55</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300487,1241306910.html</t>
+          <t>/news,300487,1241810157.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
+          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:57</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300487,1241296443.html</t>
+          <t>/news,300487,1241802421.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
+          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,29 +1149,29 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300487,1241209949.html</t>
+          <t>/news,300487,1241306910.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>222</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>蓝晓科技：高级管理人员邓建康辞职</t>
+          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>10-31 17:54</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300487,1241177635.html</t>
+          <t>/news,300487,1241296443.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
+          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,51 +1213,51 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 08:59</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300487,1240797002.html</t>
+          <t>/news,300487,1241209949.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
+          <t>蓝晓科技：高级管理人员邓建康辞职</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 17:54</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300487,1240712956.html</t>
+          <t>/news,300487,1241177635.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>336</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,29 +1267,29 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
+          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-31 08:59</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300487,1240707584.html</t>
+          <t>/news,300487,1240797002.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>281</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,29 +1299,29 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
+          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-30 13:59</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300487,1240705782.html</t>
+          <t>/news,300487,1240712956.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>360</t>
+          <t>337</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,39 +1331,39 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
+          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300487,1240601271.html</t>
+          <t>/news,300487,1240707584.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>476</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
+          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-28 11:19</t>
+          <t>10-30 13:59</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300487,1240242802.html</t>
+          <t>/news,300487,1240705782.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>362</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,7 +1395,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
+          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,51 +1405,51 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-28 09:18</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300487,1240064947.html</t>
+          <t>/news,300487,1240601271.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>314</t>
+          <t>480</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
+          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 07:47</t>
+          <t>10-28 11:19</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300487,1240047399.html</t>
+          <t>/news,300487,1240242802.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>448</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>景顺长城基金刘彦春调研蓝晓科技</t>
+          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,29 +1469,29 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-27 09:57</t>
+          <t>10-28 09:18</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300487,1239582222.html</t>
+          <t>/news,300487,1240064947.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>315</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
+          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-27 08:57</t>
+          <t>10-28 07:47</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300487,1239507200.html</t>
+          <t>/news,300487,1240047399.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>326</t>
+          <t>460</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
+          <t>景顺长城基金刘彦春调研蓝晓科技</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-27 09:57</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300487,1239499296.html</t>
+          <t>/news,300487,1239582222.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>441</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
+          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-26 22:39</t>
+          <t>10-27 08:57</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300487,1239454973.html</t>
+          <t>/news,300487,1239507200.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>311</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
+          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,51 +1597,51 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-26 21:30</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300487,1239444137.html</t>
+          <t>/news,300487,1239499296.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>452</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
+          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 19:32</t>
+          <t>10-26 22:39</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300487,1239399515.html</t>
+          <t>/news,300487,1239454973.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>318</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,29 +1651,29 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
+          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 18:50</t>
+          <t>10-26 21:30</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300487,1239385772.html</t>
+          <t>/news,300487,1239444137.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国海证券给予蓝晓科技买入评级</t>
+          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 17:52</t>
+          <t>10-26 19:32</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300487,1239368636.html</t>
+          <t>/news,300487,1239399515.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,39 +1715,39 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
+          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 08:54</t>
+          <t>10-26 18:50</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300487,1238979058.html</t>
+          <t>/news,300487,1239385772.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
+          <t>国海证券给予蓝晓科技买入评级</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,61 +1757,61 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-26 17:52</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300487,1238967838.html</t>
+          <t>/news,300487,1239368636.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
+          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 08:54</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300487,1238867877.html</t>
+          <t>/news,300487,1238979058.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
+          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-25 14:51</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300487,1238772466.html</t>
+          <t>/news,300487,1238967838.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
+          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,29 +1853,29 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 14:47</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300487,1238766498.html</t>
+          <t>/news,300487,1238867877.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>514</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
+          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,93 +1885,93 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 09:16</t>
+          <t>10-25 14:51</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300487,1238467589.html</t>
+          <t>/news,300487,1238772466.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>235</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
+          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 09:09</t>
+          <t>10-25 14:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300487,1238463911.html</t>
+          <t>/news,300487,1238766498.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>366</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
+          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-25 09:16</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300487,1238459621.html</t>
+          <t>/news,300487,1238467589.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
+          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 08:53</t>
+          <t>10-25 09:09</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300487,1238458231.html</t>
+          <t>/news,300487,1238463911.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,39 +2003,39 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
+          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300487,1238448856.html</t>
+          <t>/news,300487,1238459621.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
+          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-24 23:07</t>
+          <t>10-25 08:53</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300487,1238415050.html</t>
+          <t>/news,300487,1238458231.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>417</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
+          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,19 +2077,19 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-24 19:52</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300487,1238354985.html</t>
+          <t>/news,300487,1238448856.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>387</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,39 +2099,39 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
+          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-24 19:41</t>
+          <t>10-24 23:07</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300487,1238351074.html</t>
+          <t>/news,300487,1238415050.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>420</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
+          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-24 19:39</t>
+          <t>10-24 19:52</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300487,1238354298.html</t>
+          <t>/news,300487,1238354985.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>560</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
+          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 19:41</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300487,1237859908.html</t>
+          <t>/news,300487,1238351074.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>447</t>
+          <t>416</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
+          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,19 +2205,19 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-22 07:50</t>
+          <t>10-24 19:39</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300487,1237797045.html</t>
+          <t>/news,300487,1238354298.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -2227,39 +2227,39 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
+          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300487,1237349012.html</t>
+          <t>/news,300487,1237859908.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>450</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
+          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-22 07:50</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300487,1236889696.html</t>
+          <t>/news,300487,1237797045.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>376</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
+          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-19 18:02</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300487,1236766569.html</t>
+          <t>/news,300487,1237349012.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,29 +2333,29 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-19 16:40</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300487,1236751518.html</t>
+          <t>/news,300487,1236889696.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
+          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,29 +2365,29 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-19 18:02</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300487,1236438954.html</t>
+          <t>/news,300487,1236766569.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>1920</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-18 12:37</t>
+          <t>10-19 16:40</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300487,1236214520.html</t>
+          <t>/news,300487,1236751518.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
+          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-18 07:51</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300487,1236042428.html</t>
+          <t>/news,300487,1236438954.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>463</t>
+          <t>1921</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
+          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-17 20:39</t>
+          <t>10-18 12:37</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300487,1235986795.html</t>
+          <t>/news,300487,1236214520.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
+          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 07:51</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300487,1235954029.html</t>
+          <t>/news,300487,1236042428.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>466</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,19 +2525,19 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 17:57</t>
+          <t>10-17 20:39</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300487,1235953563.html</t>
+          <t>/news,300487,1235986795.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2547,29 +2547,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
+          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300487,1235576161.html</t>
+          <t>/news,300487,1235954029.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>253</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,19 +2589,19 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-17 17:57</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300487,1235512228.html</t>
+          <t>/news,300487,1235953563.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,29 +2611,29 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
+          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-14 18:01</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300487,1235409628.html</t>
+          <t>/news,300487,1235576161.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
+          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-14 07:50</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300487,1235082168.html</t>
+          <t>/news,300487,1235512228.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>345</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
+          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-13 18:01</t>
+          <t>10-14 18:01</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300487,1234947863.html</t>
+          <t>/news,300487,1235409628.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-13 17:53</t>
+          <t>10-14 07:50</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300487,1234946457.html</t>
+          <t>/news,300487,1235082168.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>491</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
+          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,24 +2749,24 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-13 08:04</t>
+          <t>10-13 18:01</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300487,1234648221.html</t>
+          <t>/news,300487,1234947863.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-12 17:47</t>
+          <t>10-13 17:53</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300487,1234527694.html</t>
+          <t>/news,300487,1234946457.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
+          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-13 08:04</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300487,1234212951.html</t>
+          <t>/news,300487,1234648221.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>303</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,19 +2845,19 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-11 07:51</t>
+          <t>10-12 17:47</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300487,1233836972.html</t>
+          <t>/news,300487,1234527694.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>289</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -2867,7 +2867,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-10 19:43</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300487,1233749984.html</t>
+          <t>/news,300487,1234212951.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>276</t>
+          <t>355</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
+          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-10 19:42</t>
+          <t>10-11 07:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300487,1233750103.html</t>
+          <t>/news,300487,1233836972.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,39 +2931,39 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-10 19:43</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300487,1233317225.html</t>
+          <t>/news,300487,1233749984.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>888</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>蓝晓科技董事韦卫军减持1万股 减持金额75.74万元</t>
+          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>09-30 20:28</t>
+          <t>10-10 19:42</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300487,1232881148.html</t>
+          <t>/news,300487,1233750103.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>523</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蓝晓科技09月29日获深股通增持36.66万股</t>
+          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>09-30 07:44</t>
+          <t>10-09 14:06</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300487,1232534949.html</t>
+          <t>/news,300487,1233317225.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>169</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还1096.2万元，融资余额2.21亿元（11-10）</t>
+          <t>蓝晓科技本周融资净买入620.38万元，居塑料制品板块第九</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300487,1245424301.html</t>
+          <t>/news,300487,1246098518.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>162</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,29 +499,29 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>蓝晓科技11月10日被深股通减持5.01万股</t>
+          <t>蓝晓科技本周深股通持股市值增加3663.84万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-11 07:46</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300487,1245411879.html</t>
+          <t>/news,300487,1246094686.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1463万元，融资余额2.32亿元（11-09）</t>
+          <t>蓝晓科技11月11日被深股通减持10.95万股</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-10 08:54</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300487,1244900877.html</t>
+          <t>/news,300487,1245986401.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>蓝晓科技11月09日获深股通增持17.32万股</t>
+          <t>蓝晓科技：融资净偿还1096.2万元，融资余额2.21亿元（11-10）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-10 07:56</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300487,1244892569.html</t>
+          <t>/news,300487,1245424301.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>209</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
+          <t>蓝晓科技11月10日被深股通减持5.01万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-11 07:46</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300487,1244437663.html</t>
+          <t>/news,300487,1245411879.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
+          <t>蓝晓科技：融资净买入1463万元，融资余额2.32亿元（11-09）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-09 07:47</t>
+          <t>11-10 08:54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300487,1244427580.html</t>
+          <t>/news,300487,1244900877.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
+          <t>蓝晓科技11月09日获深股通增持17.32万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,51 +669,51 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-10 07:56</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300487,1243983902.html</t>
+          <t>/news,300487,1244892569.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>340</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
+          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-08 08:29</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300487,1243979798.html</t>
+          <t>/news,300487,1244437663.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
+          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:47</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300487,1243976322.html</t>
+          <t>/news,300487,1244427580.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>211</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
+          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,51 +765,51 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300487,1243513881.html</t>
+          <t>/news,300487,1243983902.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
+          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 08:29</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300487,1243411005.html</t>
+          <t>/news,300487,1243979798.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
+          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300487,1243405460.html</t>
+          <t>/news,300487,1243976322.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>375</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
+          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300487,1243319795.html</t>
+          <t>/news,300487,1243513881.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2141</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
+          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-04 19:23</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300487,1243248866.html</t>
+          <t>/news,300487,1243411005.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
+          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-04 08:52</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300487,1242826544.html</t>
+          <t>/news,300487,1243405460.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>170</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
+          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300487,1242815890.html</t>
+          <t>/news,300487,1243319795.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>2297</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
+          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-03 08:56</t>
+          <t>11-04 19:23</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300487,1242335116.html</t>
+          <t>/news,300487,1243248866.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>161</t>
+          <t>180</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
+          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,29 +1021,29 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-03 07:56</t>
+          <t>11-04 08:52</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300487,1242326587.html</t>
+          <t>/news,300487,1242826544.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
+          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-02 20:38</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300487,1242248316.html</t>
+          <t>/news,300487,1242815890.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
+          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-02 08:55</t>
+          <t>11-03 08:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300487,1241810157.html</t>
+          <t>/news,300487,1242335116.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>168</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
+          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-02 07:57</t>
+          <t>11-03 07:56</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300487,1241802421.html</t>
+          <t>/news,300487,1242326587.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
+          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 20:38</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300487,1241306910.html</t>
+          <t>/news,300487,1242248316.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
+          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 08:55</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300487,1241296443.html</t>
+          <t>/news,300487,1241810157.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>230</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
+          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-02 07:57</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300487,1241209949.html</t>
+          <t>/news,300487,1241802421.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>蓝晓科技：高级管理人员邓建康辞职</t>
+          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,19 +1245,19 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>10-31 17:54</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300487,1241177635.html</t>
+          <t>/news,300487,1241306910.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>229</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
+          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,83 +1277,83 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>10-31 08:59</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300487,1240797002.html</t>
+          <t>/news,300487,1241296443.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>516</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
+          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300487,1240712956.html</t>
+          <t>/news,300487,1241209949.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>337</t>
+          <t>528</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
+          <t>蓝晓科技：高级管理人员邓建康辞职</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-31 17:54</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300487,1240707584.html</t>
+          <t>/news,300487,1241177635.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,29 +1363,29 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
+          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-30 13:59</t>
+          <t>10-31 08:59</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300487,1240705782.html</t>
+          <t>/news,300487,1240797002.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>362</t>
+          <t>312</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,61 +1395,61 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
+          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300487,1240601271.html</t>
+          <t>/news,300487,1240712956.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>480</t>
+          <t>346</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
+          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-28 11:19</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300487,1240242802.html</t>
+          <t>/news,300487,1240707584.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>290</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,39 +1459,39 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
+          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-28 09:18</t>
+          <t>10-30 13:59</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300487,1240064947.html</t>
+          <t>/news,300487,1240705782.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>315</t>
+          <t>365</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
+          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-28 07:47</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300487,1240047399.html</t>
+          <t>/news,300487,1240601271.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>460</t>
+          <t>489</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>景顺长城基金刘彦春调研蓝晓科技</t>
+          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-27 09:57</t>
+          <t>10-28 11:19</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300487,1239582222.html</t>
+          <t>/news,300487,1240242802.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
+          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-27 08:57</t>
+          <t>10-28 09:18</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300487,1239507200.html</t>
+          <t>/news,300487,1240064947.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>320</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
+          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-28 07:47</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300487,1239499296.html</t>
+          <t>/news,300487,1240047399.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>452</t>
+          <t>471</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
+          <t>景顺长城基金刘彦春调研蓝晓科技</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,19 +1629,19 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-26 22:39</t>
+          <t>10-27 09:57</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300487,1239454973.html</t>
+          <t>/news,300487,1239582222.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>318</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -1651,7 +1651,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
+          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,83 +1661,83 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-26 21:30</t>
+          <t>10-27 08:57</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300487,1239444137.html</t>
+          <t>/news,300487,1239507200.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>339</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
+          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-26 19:32</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300487,1239399515.html</t>
+          <t>/news,300487,1239499296.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>465</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
+          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 18:50</t>
+          <t>10-26 22:39</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300487,1239385772.html</t>
+          <t>/news,300487,1239454973.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>国海证券给予蓝晓科技买入评级</t>
+          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 17:52</t>
+          <t>10-26 21:30</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300487,1239368636.html</t>
+          <t>/news,300487,1239444137.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,103 +1779,103 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
+          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 08:54</t>
+          <t>10-26 19:32</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300487,1238979058.html</t>
+          <t>/news,300487,1239399515.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
+          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-26 18:50</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300487,1238967838.html</t>
+          <t>/news,300487,1239385772.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
+          <t>国海证券给予蓝晓科技买入评级</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 17:52</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300487,1238867877.html</t>
+          <t>/news,300487,1239368636.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>514</t>
+          <t>196</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
+          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,93 +1885,93 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-25 14:51</t>
+          <t>10-26 08:54</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300487,1238772466.html</t>
+          <t>/news,300487,1238979058.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>291</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
+          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-25 14:47</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300487,1238766498.html</t>
+          <t>/news,300487,1238967838.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>366</t>
+          <t>357</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
+          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 09:16</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300487,1238467589.html</t>
+          <t>/news,300487,1238867877.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>522</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
+          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 09:09</t>
+          <t>10-25 14:51</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300487,1238463911.html</t>
+          <t>/news,300487,1238772466.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
+          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-25 14:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300487,1238459621.html</t>
+          <t>/news,300487,1238766498.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
+          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,29 +2045,29 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 08:53</t>
+          <t>10-25 09:16</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300487,1238458231.html</t>
+          <t>/news,300487,1238467589.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
+          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,61 +2077,61 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 09:09</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300487,1238448856.html</t>
+          <t>/news,300487,1238463911.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>387</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
+          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-24 23:07</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300487,1238415050.html</t>
+          <t>/news,300487,1238459621.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
+          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -2141,51 +2141,51 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-24 19:52</t>
+          <t>10-25 08:53</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300487,1238354985.html</t>
+          <t>/news,300487,1238458231.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>192</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
+          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-24 19:41</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300487,1238351074.html</t>
+          <t>/news,300487,1238448856.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>416</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,7 +2195,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
+          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,51 +2205,51 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-24 19:39</t>
+          <t>10-24 23:07</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300487,1238354298.html</t>
+          <t>/news,300487,1238415050.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>425</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
+          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 19:52</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300487,1237859908.html</t>
+          <t>/news,300487,1238354985.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>450</t>
+          <t>561</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
+          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-22 07:50</t>
+          <t>10-24 19:41</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300487,1237797045.html</t>
+          <t>/news,300487,1238351074.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>419</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
+          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-24 19:39</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300487,1237349012.html</t>
+          <t>/news,300487,1238354298.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>367</t>
+          <t>429</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
+          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300487,1236889696.html</t>
+          <t>/news,300487,1237859908.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>378</t>
+          <t>453</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
+          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,19 +2365,19 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-19 18:02</t>
+          <t>10-22 07:50</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300487,1236766569.html</t>
+          <t>/news,300487,1237797045.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>268</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -2387,7 +2387,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,29 +2397,29 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-19 16:40</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300487,1236751518.html</t>
+          <t>/news,300487,1237349012.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
+          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300487,1236438954.html</t>
+          <t>/news,300487,1236889696.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>1921</t>
+          <t>379</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
+          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,19 +2461,19 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-18 12:37</t>
+          <t>10-19 18:02</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300487,1236214520.html</t>
+          <t>/news,300487,1236766569.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -2483,7 +2483,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,29 +2493,29 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-18 07:51</t>
+          <t>10-19 16:40</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300487,1236042428.html</t>
+          <t>/news,300487,1236751518.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>466</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
+          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-17 20:39</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300487,1235986795.html</t>
+          <t>/news,300487,1236438954.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>1927</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
+          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,19 +2557,19 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 12:37</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300487,1235954029.html</t>
+          <t>/news,300487,1236214520.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -2579,7 +2579,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,51 +2589,51 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-17 17:57</t>
+          <t>10-18 07:51</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300487,1235953563.html</t>
+          <t>/news,300487,1236042428.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>467</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
+          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 20:39</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300487,1235576161.html</t>
+          <t>/news,300487,1235986795.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
+          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,19 +2653,19 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300487,1235512228.html</t>
+          <t>/news,300487,1235954029.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>345</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,7 +2675,7 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-14 18:01</t>
+          <t>10-17 17:57</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300487,1235409628.html</t>
+          <t>/news,300487,1235953563.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
+          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-14 07:50</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300487,1235082168.html</t>
+          <t>/news,300487,1235576161.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>491</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
+          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-13 18:01</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300487,1234947863.html</t>
+          <t>/news,300487,1235512228.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-13 17:53</t>
+          <t>10-14 18:01</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300487,1234946457.html</t>
+          <t>/news,300487,1235409628.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>296</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
+          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-13 08:04</t>
+          <t>10-14 07:50</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300487,1234648221.html</t>
+          <t>/news,300487,1235082168.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>495</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-12 17:47</t>
+          <t>10-13 18:01</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300487,1234527694.html</t>
+          <t>/news,300487,1234947863.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-13 17:53</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300487,1234212951.html</t>
+          <t>/news,300487,1234946457.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>355</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
+          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-11 07:51</t>
+          <t>10-13 08:04</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300487,1233836972.html</t>
+          <t>/news,300487,1234648221.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-10 19:43</t>
+          <t>10-12 17:47</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300487,1233749984.html</t>
+          <t>/news,300487,1234527694.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>279</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>蓝晓科技：“蓝晓转债”第三季度转股约321万股</t>
+          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-10 19:42</t>
+          <t>10-12 07:50</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300487,1233750103.html</t>
+          <t>/news,300487,1234212951.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>523</t>
+          <t>358</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,22 +2995,22 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加5263.44万元，居塑料制品板块第二</t>
+          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-09 14:06</t>
+          <t>10-11 07:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300487,1233317225.html</t>
+          <t>/news,300487,1233836972.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,39 +457,39 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>169</t>
+          <t>125</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入620.38万元，居塑料制品板块第九</t>
+          <t>蓝晓科技：融资净买入2314.7万元，融资余额2.38亿元（11-14）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 08:55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300487,1246098518.html</t>
+          <t>/news,300487,1246699477.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>162</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,39 +499,39 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加3663.84万元，居塑料制品板块第一</t>
+          <t>蓝晓科技11月14日获深股通增持40.73万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300487,1246094686.html</t>
+          <t>/news,300487,1246689351.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>7456</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>蓝晓科技11月11日被深股通减持10.95万股</t>
+          <t>盐湖提锂概念股震荡走弱 蓝晓科技跌超10%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-14 13:24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300487,1245986401.html</t>
+          <t>/news,300487,1246429392.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还1096.2万元，融资余额2.21亿元（11-10）</t>
+          <t>蓝晓科技：融资净偿还614.98万元，融资余额2.15亿元（11-11）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-14 08:51</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300487,1245424301.html</t>
+          <t>/news,300487,1246196883.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>267</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>蓝晓科技11月10日被深股通减持5.01万股</t>
+          <t>蓝晓科技本周融资净买入620.38万元，居塑料制品板块第九</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-11 07:46</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300487,1245411879.html</t>
+          <t>/news,300487,1246098518.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,29 +627,29 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1463万元，融资余额2.32亿元（11-09）</t>
+          <t>蓝晓科技本周深股通持股市值增加3663.84万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-10 08:54</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300487,1244900877.html</t>
+          <t>/news,300487,1246094686.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>286</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>蓝晓科技11月09日获深股通增持17.32万股</t>
+          <t>蓝晓科技11月11日被深股通减持10.95万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-10 07:56</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300487,1244892569.html</t>
+          <t>/news,300487,1245986401.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
+          <t>蓝晓科技：融资净偿还1096.2万元，融资余额2.21亿元（11-10）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,19 +701,19 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300487,1244437663.html</t>
+          <t>/news,300487,1245424301.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -723,7 +723,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
+          <t>蓝晓科技11月10日被深股通减持5.01万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-09 07:47</t>
+          <t>11-11 07:46</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300487,1244427580.html</t>
+          <t>/news,300487,1245411879.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>236</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
+          <t>蓝晓科技：融资净买入1463万元，融资余额2.32亿元（11-09）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,51 +765,51 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-10 08:54</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300487,1243983902.html</t>
+          <t>/news,300487,1244900877.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
+          <t>蓝晓科技11月09日获深股通增持17.32万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-08 08:29</t>
+          <t>11-10 07:56</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300487,1243979798.html</t>
+          <t>/news,300487,1244892569.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>223</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
+          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300487,1243976322.html</t>
+          <t>/news,300487,1244437663.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
+          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-09 07:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300487,1243513881.html</t>
+          <t>/news,300487,1244427580.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>219</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,61 +883,61 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
+          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300487,1243411005.html</t>
+          <t>/news,300487,1243983902.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>383</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
+          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 08:29</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300487,1243405460.html</t>
+          <t>/news,300487,1243979798.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>282</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
+          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,29 +957,29 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300487,1243319795.html</t>
+          <t>/news,300487,1243976322.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2297</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
+          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-04 19:23</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300487,1243248866.html</t>
+          <t>/news,300487,1243513881.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,29 +1011,29 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
+          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-04 08:52</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300487,1242826544.html</t>
+          <t>/news,300487,1243411005.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>301</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,29 +1043,29 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
+          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300487,1242815890.html</t>
+          <t>/news,300487,1243405460.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>389</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
+          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-03 08:56</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300487,1242335116.html</t>
+          <t>/news,300487,1243319795.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>168</t>
+          <t>2400</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
+          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,29 +1117,29 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-03 07:56</t>
+          <t>11-04 19:23</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300487,1242326587.html</t>
+          <t>/news,300487,1243248866.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>183</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
+          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-02 20:38</t>
+          <t>11-04 08:52</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300487,1242248316.html</t>
+          <t>/news,300487,1242826544.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>181</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
+          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-02 08:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300487,1241810157.html</t>
+          <t>/news,300487,1242815890.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
+          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,19 +1213,19 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-02 07:57</t>
+          <t>11-03 08:56</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300487,1241802421.html</t>
+          <t>/news,300487,1242335116.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>172</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,7 +1235,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
+          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-03 07:56</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300487,1241306910.html</t>
+          <t>/news,300487,1242326587.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>408</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
+          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 20:38</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300487,1241296443.html</t>
+          <t>/news,300487,1242248316.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>516</t>
+          <t>204</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
+          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-02 08:55</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300487,1241209949.html</t>
+          <t>/news,300487,1241810157.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>蓝晓科技：高级管理人员邓建康辞职</t>
+          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>10-31 17:54</t>
+          <t>11-02 07:57</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300487,1241177635.html</t>
+          <t>/news,300487,1241802421.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>271</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
+          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,19 +1373,19 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>10-31 08:59</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300487,1240797002.html</t>
+          <t>/news,300487,1241306910.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>312</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1395,93 +1395,93 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
+          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300487,1240712956.html</t>
+          <t>/news,300487,1241296443.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>346</t>
+          <t>531</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
+          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300487,1240707584.html</t>
+          <t>/news,300487,1241209949.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>290</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
+          <t>蓝晓科技：高级管理人员邓建康辞职</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-30 13:59</t>
+          <t>10-31 17:54</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300487,1240705782.html</t>
+          <t>/news,300487,1241177635.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>365</t>
+          <t>252</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
+          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,51 +1501,51 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-31 08:59</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300487,1240601271.html</t>
+          <t>/news,300487,1240797002.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>317</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
+          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-28 11:19</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300487,1240242802.html</t>
+          <t>/news,300487,1240712956.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>352</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1555,61 +1555,61 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
+          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-28 09:18</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300487,1240064947.html</t>
+          <t>/news,300487,1240707584.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>293</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
+          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-28 07:47</t>
+          <t>10-30 13:59</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300487,1240047399.html</t>
+          <t>/news,300487,1240705782.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>471</t>
+          <t>368</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>景顺长城基金刘彦春调研蓝晓科技</t>
+          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,61 +1629,61 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-27 09:57</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300487,1239582222.html</t>
+          <t>/news,300487,1240601271.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>494</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
+          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-27 08:57</t>
+          <t>10-28 11:19</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300487,1239507200.html</t>
+          <t>/news,300487,1240242802.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>339</t>
+          <t>234</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
+          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,29 +1693,29 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-28 09:18</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300487,1239499296.html</t>
+          <t>/news,300487,1240064947.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>324</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
+          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1725,19 +1725,19 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-26 22:39</t>
+          <t>10-28 07:47</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300487,1239454973.html</t>
+          <t>/news,300487,1240047399.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>333</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
+          <t>景顺长城基金刘彦春调研蓝晓科技</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,19 +1757,19 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-26 21:30</t>
+          <t>10-27 09:57</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300487,1239444137.html</t>
+          <t>/news,300487,1239582222.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>212</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,71 +1779,71 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
+          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-26 19:32</t>
+          <t>10-27 08:57</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300487,1239399515.html</t>
+          <t>/news,300487,1239507200.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
+          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-26 18:50</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300487,1239385772.html</t>
+          <t>/news,300487,1239499296.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>478</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>国海证券给予蓝晓科技买入评级</t>
+          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 17:52</t>
+          <t>10-26 22:39</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300487,1239368636.html</t>
+          <t>/news,300487,1239454973.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>196</t>
+          <t>343</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
+          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,61 +1885,61 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 08:54</t>
+          <t>10-26 21:30</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300487,1238979058.html</t>
+          <t>/news,300487,1239444137.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>291</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
+          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-26 19:32</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300487,1238967838.html</t>
+          <t>/news,300487,1239399515.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>270</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
+          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 18:50</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300487,1238867877.html</t>
+          <t>/news,300487,1239385772.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>522</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
+          <t>国海证券给予蓝晓科技买入评级</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-25 14:51</t>
+          <t>10-26 17:52</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300487,1238772466.html</t>
+          <t>/news,300487,1239368636.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,29 +2003,29 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
+          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-25 14:47</t>
+          <t>10-26 08:54</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300487,1238766498.html</t>
+          <t>/news,300487,1238979058.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
+          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-25 09:16</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300487,1238467589.html</t>
+          <t>/news,300487,1238967838.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,61 +2067,61 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
+          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 09:09</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300487,1238463911.html</t>
+          <t>/news,300487,1238867877.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>535</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
+          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-25 14:51</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300487,1238459621.html</t>
+          <t>/news,300487,1238772466.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
+          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 08:53</t>
+          <t>10-25 14:47</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300487,1238458231.html</t>
+          <t>/news,300487,1238766498.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>192</t>
+          <t>377</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
+          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,29 +2173,29 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 09:16</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300487,1238448856.html</t>
+          <t>/news,300487,1238467589.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>499</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
+          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2205,93 +2205,93 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-24 23:07</t>
+          <t>10-25 09:09</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300487,1238415050.html</t>
+          <t>/news,300487,1238463911.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>425</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
+          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-24 19:52</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300487,1238354985.html</t>
+          <t>/news,300487,1238459621.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
+          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-24 19:41</t>
+          <t>10-25 08:53</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300487,1238351074.html</t>
+          <t>/news,300487,1238458231.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>419</t>
+          <t>193</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
+          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,61 +2301,61 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-24 19:39</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300487,1238354298.html</t>
+          <t>/news,300487,1238448856.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
+          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 23:07</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300487,1237859908.html</t>
+          <t>/news,300487,1238415050.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
+          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2365,61 +2365,61 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-22 07:50</t>
+          <t>10-24 19:52</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300487,1237797045.html</t>
+          <t>/news,300487,1238354985.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
+          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-24 19:41</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300487,1237349012.html</t>
+          <t>/news,300487,1238351074.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>424</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
+          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-24 19:39</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300487,1236889696.html</t>
+          <t>/news,300487,1238354298.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>379</t>
+          <t>433</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
+          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-19 18:02</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300487,1236766569.html</t>
+          <t>/news,300487,1237859908.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-19 16:40</t>
+          <t>10-22 07:50</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300487,1236751518.html</t>
+          <t>/news,300487,1237797045.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,7 +2515,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
+          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -2525,29 +2525,29 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300487,1236438954.html</t>
+          <t>/news,300487,1237349012.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>1927</t>
+          <t>373</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
+          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,29 +2557,29 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-18 12:37</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300487,1236214520.html</t>
+          <t>/news,300487,1236889696.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
+          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -2589,29 +2589,29 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-18 07:51</t>
+          <t>10-19 18:02</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300487,1236042428.html</t>
+          <t>/news,300487,1236766569.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>467</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-17 20:39</t>
+          <t>10-19 16:40</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300487,1235986795.html</t>
+          <t>/news,300487,1236751518.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
+          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300487,1235954029.html</t>
+          <t>/news,300487,1236438954.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1933</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,19 +2685,19 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-17 17:57</t>
+          <t>10-18 12:37</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300487,1235953563.html</t>
+          <t>/news,300487,1236214520.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -2707,39 +2707,39 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
+          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-18 07:51</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300487,1235576161.html</t>
+          <t>/news,300487,1236042428.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>469</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
+          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-17 20:39</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300487,1235512228.html</t>
+          <t>/news,300487,1235986795.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
+          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-14 18:01</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300487,1235409628.html</t>
+          <t>/news,300487,1235954029.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,61 +2813,61 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-14 07:50</t>
+          <t>10-17 17:57</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300487,1235082168.html</t>
+          <t>/news,300487,1235953563.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>495</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
+          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-13 18:01</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300487,1234947863.html</t>
+          <t>/news,300487,1235576161.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,29 +2877,29 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-13 17:53</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300487,1234946457.html</t>
+          <t>/news,300487,1235512228.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>300</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>蓝晓科技10月12日被深股通减持22.24万股</t>
+          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-13 08:04</t>
+          <t>10-14 18:01</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300487,1234648221.html</t>
+          <t>/news,300487,1235409628.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>283</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-12 17:47</t>
+          <t>10-14 07:50</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300487,1234527694.html</t>
+          <t>/news,300487,1235082168.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>蓝晓科技10月11日获深股通增持5.68万股</t>
+          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,29 +2973,29 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-12 07:50</t>
+          <t>10-13 18:01</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300487,1234212951.html</t>
+          <t>/news,300487,1234947863.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>358</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蓝晓科技10月10日获深股通增持9.25万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-11 07:51</t>
+          <t>10-13 17:53</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300487,1233836972.html</t>
+          <t>/news,300487,1234946457.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>153</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2314.7万元，融资余额2.38亿元（11-14）</t>
+          <t>蓝晓科技：连续3日融资净买入累计5517.41万元（11-16）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,19 +477,19 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-15 08:55</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300487,1246699477.html</t>
+          <t>/news,300487,1247676618.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>147</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -499,7 +499,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>蓝晓科技11月14日获深股通增持40.73万股</t>
+          <t>蓝晓科技11月16日被深股通减持21.65万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,29 +509,29 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-17 07:40</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300487,1246689351.html</t>
+          <t>/news,300487,1247665923.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7456</t>
+          <t>165</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>盐湖提锂概念股震荡走弱 蓝晓科技跌超10%</t>
+          <t>蓝晓科技：融资净买入1268.15万元，融资余额2.5亿元（11-15）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-14 13:24</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300487,1246429392.html</t>
+          <t>/news,300487,1247184388.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>208</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还614.98万元，融资余额2.15亿元（11-11）</t>
+          <t>蓝晓科技11月15日获深股通增持25.21万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,51 +573,51 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-14 08:51</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300487,1246196883.html</t>
+          <t>/news,300487,1247174299.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入620.38万元，居塑料制品板块第九</t>
+          <t>蓝晓科技：融资净买入2314.7万元，融资余额2.38亿元（11-14）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 08:55</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300487,1246098518.html</t>
+          <t>/news,300487,1246699477.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,39 +627,39 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加3663.84万元，居塑料制品板块第一</t>
+          <t>蓝晓科技11月14日获深股通增持40.73万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300487,1246094686.html</t>
+          <t>/news,300487,1246689351.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>7526</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>蓝晓科技11月11日被深股通减持10.95万股</t>
+          <t>盐湖提锂概念股震荡走弱 蓝晓科技跌超10%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,12 +669,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-14 13:24</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300487,1245986401.html</t>
+          <t>/news,300487,1246429392.html</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还1096.2万元，融资余额2.21亿元（11-10）</t>
+          <t>蓝晓科技：融资净偿还614.98万元，融资余额2.15亿元（11-11）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,51 +701,51 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-14 08:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300487,1245424301.html</t>
+          <t>/news,300487,1246196883.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>蓝晓科技11月10日被深股通减持5.01万股</t>
+          <t>蓝晓科技本周融资净买入620.38万元，居塑料制品板块第九</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-11 07:46</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300487,1245411879.html</t>
+          <t>/news,300487,1246098518.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,29 +755,29 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1463万元，融资余额2.32亿元（11-09）</t>
+          <t>蓝晓科技本周深股通持股市值增加3663.84万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-10 08:54</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300487,1244900877.html</t>
+          <t>/news,300487,1246094686.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>294</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -787,7 +787,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>蓝晓科技11月09日获深股通增持17.32万股</t>
+          <t>蓝晓科技11月11日被深股通减持10.95万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -797,19 +797,19 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-10 07:56</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300487,1244892569.html</t>
+          <t>/news,300487,1245986401.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
+          <t>蓝晓科技：融资净偿还1096.2万元，融资余额2.21亿元（11-10）</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -829,19 +829,19 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300487,1244437663.html</t>
+          <t>/news,300487,1245424301.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
+          <t>蓝晓科技11月10日被深股通减持5.01万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-09 07:47</t>
+          <t>11-11 07:46</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300487,1244427580.html</t>
+          <t>/news,300487,1245411879.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
+          <t>蓝晓科技：融资净买入1463万元，融资余额2.32亿元（11-09）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,51 +893,51 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-10 08:54</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300487,1243983902.html</t>
+          <t>/news,300487,1244900877.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>383</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
+          <t>蓝晓科技11月09日获深股通增持17.32万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-08 08:29</t>
+          <t>11-10 07:56</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300487,1243979798.html</t>
+          <t>/news,300487,1244892569.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>282</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
+          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300487,1243976322.html</t>
+          <t>/news,300487,1244437663.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
+          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-09 07:47</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300487,1243513881.html</t>
+          <t>/news,300487,1244427580.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,61 +1011,61 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
+          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300487,1243411005.html</t>
+          <t>/news,300487,1243983902.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>301</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
+          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 08:29</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300487,1243405460.html</t>
+          <t>/news,300487,1243979798.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>389</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
+          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,29 +1085,29 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300487,1243319795.html</t>
+          <t>/news,300487,1243976322.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2400</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
+          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1117,19 +1117,19 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-04 19:23</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300487,1243248866.html</t>
+          <t>/news,300487,1243513881.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>183</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
+          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-04 08:52</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300487,1242826544.html</t>
+          <t>/news,300487,1243411005.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>181</t>
+          <t>302</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
+          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300487,1242815890.html</t>
+          <t>/news,300487,1243405460.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>391</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,7 +1203,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
+          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1213,29 +1213,29 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-03 08:56</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300487,1242335116.html</t>
+          <t>/news,300487,1243319795.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>172</t>
+          <t>2415</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
+          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1245,29 +1245,29 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-03 07:56</t>
+          <t>11-04 19:23</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300487,1242326587.html</t>
+          <t>/news,300487,1243248866.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>408</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
+          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,19 +1277,19 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-02 20:38</t>
+          <t>11-04 08:52</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300487,1242248316.html</t>
+          <t>/news,300487,1242826544.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>187</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
+          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,29 +1309,29 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-02 08:55</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300487,1241810157.html</t>
+          <t>/news,300487,1242815890.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
+          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-02 07:57</t>
+          <t>11-03 08:56</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300487,1241802421.html</t>
+          <t>/news,300487,1242335116.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>173</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
+          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-03 07:56</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300487,1241306910.html</t>
+          <t>/news,300487,1242326587.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>411</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
+          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,29 +1405,29 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 20:38</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300487,1241296443.html</t>
+          <t>/news,300487,1242248316.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>205</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
+          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,19 +1437,19 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-02 08:55</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300487,1241209949.html</t>
+          <t>/news,300487,1241810157.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>547</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>蓝晓科技：高级管理人员邓建康辞职</t>
+          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>10-31 17:54</t>
+          <t>11-02 07:57</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300487,1241177635.html</t>
+          <t>/news,300487,1241802421.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
+          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,19 +1501,19 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>10-31 08:59</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300487,1240797002.html</t>
+          <t>/news,300487,1241306910.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>317</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1523,93 +1523,93 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
+          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300487,1240712956.html</t>
+          <t>/news,300487,1241296443.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>352</t>
+          <t>532</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
+          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300487,1240707584.html</t>
+          <t>/news,300487,1241209949.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>293</t>
+          <t>550</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
+          <t>蓝晓科技：高级管理人员邓建康辞职</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-30 13:59</t>
+          <t>10-31 17:54</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300487,1240705782.html</t>
+          <t>/news,300487,1241177635.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>368</t>
+          <t>256</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
+          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-31 08:59</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300487,1240601271.html</t>
+          <t>/news,300487,1240797002.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>322</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
+          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-28 11:19</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300487,1240242802.html</t>
+          <t>/news,300487,1240712956.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,61 +1683,61 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
+          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-28 09:18</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300487,1240064947.html</t>
+          <t>/news,300487,1240707584.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>324</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
+          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-28 07:47</t>
+          <t>10-30 13:59</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300487,1240047399.html</t>
+          <t>/news,300487,1240705782.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>370</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,7 +1747,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>景顺长城基金刘彦春调研蓝晓科技</t>
+          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1757,61 +1757,61 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-27 09:57</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300487,1239582222.html</t>
+          <t>/news,300487,1240601271.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>496</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
+          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-27 08:57</t>
+          <t>10-28 11:19</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300487,1239507200.html</t>
+          <t>/news,300487,1240242802.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
+          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,29 +1821,29 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-28 09:18</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300487,1239499296.html</t>
+          <t>/news,300487,1240064947.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>478</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
+          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1853,19 +1853,19 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-26 22:39</t>
+          <t>10-28 07:47</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300487,1239454973.html</t>
+          <t>/news,300487,1240047399.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>343</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
+          <t>景顺长城基金刘彦春调研蓝晓科技</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,19 +1885,19 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-26 21:30</t>
+          <t>10-27 09:57</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300487,1239444137.html</t>
+          <t>/news,300487,1239582222.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>213</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -1907,71 +1907,71 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
+          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-26 19:32</t>
+          <t>10-27 08:57</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300487,1239399515.html</t>
+          <t>/news,300487,1239507200.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>270</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
+          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-26 18:50</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300487,1239385772.html</t>
+          <t>/news,300487,1239499296.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>488</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>国海证券给予蓝晓科技买入评级</t>
+          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,19 +1981,19 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 17:52</t>
+          <t>10-26 22:39</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300487,1239368636.html</t>
+          <t>/news,300487,1239454973.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>348</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2003,7 +2003,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
+          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,61 +2013,61 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 08:54</t>
+          <t>10-26 21:30</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300487,1238979058.html</t>
+          <t>/news,300487,1239444137.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>262</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
+          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-26 19:32</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300487,1238967838.html</t>
+          <t>/news,300487,1239399515.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
+          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,29 +2077,29 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 18:50</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300487,1238867877.html</t>
+          <t>/news,300487,1239385772.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>535</t>
+          <t>278</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
+          <t>国海证券给予蓝晓科技买入评级</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -2109,19 +2109,19 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-25 14:51</t>
+          <t>10-26 17:52</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300487,1238772466.html</t>
+          <t>/news,300487,1239368636.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>198</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,29 +2131,29 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
+          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-25 14:47</t>
+          <t>10-26 08:54</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300487,1238766498.html</t>
+          <t>/news,300487,1238979058.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>377</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
+          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-25 09:16</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300487,1238467589.html</t>
+          <t>/news,300487,1238967838.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>499</t>
+          <t>363</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,61 +2195,61 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
+          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 09:09</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300487,1238463911.html</t>
+          <t>/news,300487,1238867877.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>540</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
+          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-25 14:51</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300487,1238459621.html</t>
+          <t>/news,300487,1238772466.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -2259,39 +2259,39 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
+          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 08:53</t>
+          <t>10-25 14:47</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300487,1238458231.html</t>
+          <t>/news,300487,1238766498.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>193</t>
+          <t>380</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
+          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,29 +2301,29 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 09:16</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300487,1238448856.html</t>
+          <t>/news,300487,1238467589.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
+          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2333,93 +2333,93 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-24 23:07</t>
+          <t>10-25 09:09</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300487,1238415050.html</t>
+          <t>/news,300487,1238463911.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
+          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-24 19:52</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300487,1238354985.html</t>
+          <t>/news,300487,1238459621.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
+          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-24 19:41</t>
+          <t>10-25 08:53</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300487,1238351074.html</t>
+          <t>/news,300487,1238458231.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>424</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
+          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,61 +2429,61 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-24 19:39</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300487,1238354298.html</t>
+          <t>/news,300487,1238448856.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>433</t>
+          <t>393</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
+          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 23:07</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300487,1237859908.html</t>
+          <t>/news,300487,1238415050.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
+          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,61 +2493,61 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-22 07:50</t>
+          <t>10-24 19:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300487,1237797045.html</t>
+          <t>/news,300487,1238354985.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
+          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-24 19:41</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300487,1237349012.html</t>
+          <t>/news,300487,1238351074.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>373</t>
+          <t>426</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
+          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,61 +2557,61 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-24 19:39</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300487,1236889696.html</t>
+          <t>/news,300487,1238354298.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>434</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
+          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-19 18:02</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300487,1236766569.html</t>
+          <t>/news,300487,1237859908.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>455</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-19 16:40</t>
+          <t>10-22 07:50</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300487,1236751518.html</t>
+          <t>/news,300487,1237797045.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>264</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
+          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2653,29 +2653,29 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300487,1236438954.html</t>
+          <t>/news,300487,1237349012.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>1933</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
+          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-18 12:37</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300487,1236214520.html</t>
+          <t>/news,300487,1236889696.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>384</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
+          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-18 07:51</t>
+          <t>10-19 18:02</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300487,1236042428.html</t>
+          <t>/news,300487,1236766569.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>469</t>
+          <t>273</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,19 +2749,19 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-17 20:39</t>
+          <t>10-19 16:40</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300487,1235986795.html</t>
+          <t>/news,300487,1236751518.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -2771,7 +2771,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
+          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300487,1235954029.html</t>
+          <t>/news,300487,1236438954.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>1937</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-17 17:57</t>
+          <t>10-18 12:37</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300487,1235953563.html</t>
+          <t>/news,300487,1236214520.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,39 +2835,39 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
+          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-18 07:51</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300487,1235576161.html</t>
+          <t>/news,300487,1236042428.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>473</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
+          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-17 20:39</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300487,1235512228.html</t>
+          <t>/news,300487,1235986795.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>247</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交765.95万元，成交价75.02元（10-14）</t>
+          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,19 +2909,19 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-14 18:01</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300487,1235409628.html</t>
+          <t>/news,300487,1235954029.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>283</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -2931,7 +2931,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>蓝晓科技10月13日被深股通减持19.71万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,61 +2941,61 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-14 07:50</t>
+          <t>10-17 17:57</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300487,1235082168.html</t>
+          <t>/news,300487,1235953563.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技201.91万元（10-13）</t>
+          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-13 18:01</t>
+          <t>10-16 14:06</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300487,1234947863.html</t>
+          <t>/news,300487,1235576161.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>359</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-13 17:53</t>
+          <t>10-15 07:55</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300487,1234946457.html</t>
+          <t>/news,300487,1235512228.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>119</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>蓝晓科技：连续3日融资净买入累计5517.41万元（11-16）</t>
+          <t>蓝晓科技：连续4日融资净买入累计6586.4万元（11-17）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,29 +477,29 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-18 08:47</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300487,1247676618.html</t>
+          <t>/news,300487,1248162263.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>150</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>蓝晓科技11月16日被深股通减持21.65万股</t>
+          <t>蓝晓科技11月17日被深股通减持9.45万股</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -509,19 +509,19 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-17 07:40</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300487,1247665923.html</t>
+          <t>/news,300487,1248153034.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>165</t>
+          <t>200</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,7 +531,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1268.15万元，融资余额2.5亿元（11-15）</t>
+          <t>蓝晓科技：连续3日融资净买入累计5517.41万元（11-16）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -541,19 +541,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300487,1247184388.html</t>
+          <t>/news,300487,1247676618.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>176</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>蓝晓科技11月15日获深股通增持25.21万股</t>
+          <t>蓝晓科技11月16日被深股通减持21.65万股</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,19 +573,19 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-17 07:40</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300487,1247174299.html</t>
+          <t>/news,300487,1247665923.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>175</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -595,7 +595,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2314.7万元，融资余额2.38亿元（11-14）</t>
+          <t>蓝晓科技：融资净买入1268.15万元，融资余额2.5亿元（11-15）</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-15 08:55</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300487,1246699477.html</t>
+          <t>/news,300487,1247184388.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>216</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蓝晓科技11月14日获深股通增持40.73万股</t>
+          <t>蓝晓科技11月15日获深股通增持25.21万股</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,29 +637,29 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300487,1246689351.html</t>
+          <t>/news,300487,1247174299.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7526</t>
+          <t>189</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>盐湖提锂概念股震荡走弱 蓝晓科技跌超10%</t>
+          <t>蓝晓科技：融资净买入2314.7万元，融资余额2.38亿元（11-14）</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-14 13:24</t>
+          <t>11-15 08:55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300487,1246429392.html</t>
+          <t>/news,300487,1246699477.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还614.98万元，融资余额2.15亿元（11-11）</t>
+          <t>蓝晓科技11月14日获深股通增持40.73万股</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,51 +701,51 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-14 08:51</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300487,1246196883.html</t>
+          <t>/news,300487,1246689351.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>7546</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入620.38万元，居塑料制品板块第九</t>
+          <t>盐湖提锂概念股震荡走弱 蓝晓科技跌超10%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-14 13:24</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300487,1246098518.html</t>
+          <t>/news,300487,1246429392.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,61 +755,61 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加3663.84万元，居塑料制品板块第一</t>
+          <t>蓝晓科技：融资净偿还614.98万元，融资余额2.15亿元（11-11）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-14 08:51</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300487,1246094686.html</t>
+          <t>/news,300487,1246196883.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>294</t>
+          <t>313</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>蓝晓科技11月11日被深股通减持10.95万股</t>
+          <t>蓝晓科技本周融资净买入620.38万元，居塑料制品板块第九</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300487,1245986401.html</t>
+          <t>/news,300487,1246098518.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -819,29 +819,29 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还1096.2万元，融资余额2.21亿元（11-10）</t>
+          <t>蓝晓科技本周深股通持股市值增加3663.84万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300487,1245424301.html</t>
+          <t>/news,300487,1246094686.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>295</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>蓝晓科技11月10日被深股通减持5.01万股</t>
+          <t>蓝晓科技11月11日被深股通减持10.95万股</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,19 +861,19 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-11 07:46</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300487,1245411879.html</t>
+          <t>/news,300487,1245986401.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>199</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -883,7 +883,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1463万元，融资余额2.32亿元（11-09）</t>
+          <t>蓝晓科技：融资净偿还1096.2万元，融资余额2.21亿元（11-10）</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -893,19 +893,19 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-10 08:54</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300487,1244900877.html</t>
+          <t>/news,300487,1245424301.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>220</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,7 +915,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>蓝晓科技11月09日获深股通增持17.32万股</t>
+          <t>蓝晓科技11月10日被深股通减持5.01万股</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -925,19 +925,19 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-10 07:56</t>
+          <t>11-11 07:46</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300487,1244892569.html</t>
+          <t>/news,300487,1245411879.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
+          <t>蓝晓科技：融资净买入1463万元，融资余额2.32亿元（11-09）</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-10 08:54</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300487,1244437663.html</t>
+          <t>/news,300487,1244900877.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
+          <t>蓝晓科技11月09日获深股通增持17.32万股</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-09 07:47</t>
+          <t>11-10 07:56</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300487,1244427580.html</t>
+          <t>/news,300487,1244892569.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
+          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,51 +1021,51 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300487,1243983902.html</t>
+          <t>/news,300487,1244437663.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>257</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
+          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-08 08:29</t>
+          <t>11-09 07:47</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300487,1243979798.html</t>
+          <t>/news,300487,1244427580.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>287</t>
+          <t>228</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
+          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300487,1243976322.html</t>
+          <t>/news,300487,1243983902.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>397</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
+          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:29</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300487,1243513881.html</t>
+          <t>/news,300487,1243979798.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>306</t>
+          <t>288</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,29 +1139,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
+          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300487,1243411005.html</t>
+          <t>/news,300487,1243976322.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>302</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,29 +1171,29 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
+          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300487,1243405460.html</t>
+          <t>/news,300487,1243513881.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>391</t>
+          <t>307</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1203,61 +1203,61 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
+          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300487,1243319795.html</t>
+          <t>/news,300487,1243411005.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2415</t>
+          <t>304</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
+          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-04 19:23</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300487,1243248866.html</t>
+          <t>/news,300487,1243405460.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>392</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
+          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,29 +1277,29 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-04 08:52</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300487,1242826544.html</t>
+          <t>/news,300487,1243319795.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>187</t>
+          <t>2421</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
+          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1309,19 +1309,19 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-04 19:23</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300487,1242815890.html</t>
+          <t>/news,300487,1243248866.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>190</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
+          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1341,19 +1341,19 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-03 08:56</t>
+          <t>11-04 08:52</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300487,1242335116.html</t>
+          <t>/news,300487,1242826544.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>173</t>
+          <t>188</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
+          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-03 07:56</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300487,1242326587.html</t>
+          <t>/news,300487,1242815890.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>221</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
+          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-02 20:38</t>
+          <t>11-03 08:56</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300487,1242248316.html</t>
+          <t>/news,300487,1242335116.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>174</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
+          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-02 08:55</t>
+          <t>11-03 07:56</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300487,1241810157.html</t>
+          <t>/news,300487,1242326587.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>413</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
+          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 07:57</t>
+          <t>11-02 20:38</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300487,1241802421.html</t>
+          <t>/news,300487,1242248316.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
+          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 08:55</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300487,1241306910.html</t>
+          <t>/news,300487,1241810157.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
+          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 07:57</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300487,1241296443.html</t>
+          <t>/news,300487,1241802421.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>275</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
+          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,29 +1565,29 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300487,1241209949.html</t>
+          <t>/news,300487,1241306910.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>550</t>
+          <t>237</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>蓝晓科技：高级管理人员邓建康辞职</t>
+          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>10-31 17:54</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300487,1241177635.html</t>
+          <t>/news,300487,1241296443.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>256</t>
+          <t>533</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
+          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,51 +1629,51 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 08:59</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300487,1240797002.html</t>
+          <t>/news,300487,1241209949.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>322</t>
+          <t>551</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
+          <t>蓝晓科技：高级管理人员邓建康辞职</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 17:54</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300487,1240712956.html</t>
+          <t>/news,300487,1241177635.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>354</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,29 +1683,29 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
+          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-31 08:59</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300487,1240707584.html</t>
+          <t>/news,300487,1240797002.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -1715,29 +1715,29 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
+          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-30 13:59</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300487,1240705782.html</t>
+          <t>/news,300487,1240712956.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>370</t>
+          <t>356</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -1747,39 +1747,39 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
+          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300487,1240601271.html</t>
+          <t>/news,300487,1240707584.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>496</t>
+          <t>297</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
+          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -1789,19 +1789,19 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-28 11:19</t>
+          <t>10-30 13:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300487,1240242802.html</t>
+          <t>/news,300487,1240705782.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>371</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
+          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1821,51 +1821,51 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-28 09:18</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300487,1240064947.html</t>
+          <t>/news,300487,1240601271.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>497</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
+          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 07:47</t>
+          <t>10-28 11:19</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300487,1240047399.html</t>
+          <t>/news,300487,1240242802.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>238</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,7 +1875,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>景顺长城基金刘彦春调研蓝晓科技</t>
+          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -1885,29 +1885,29 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-27 09:57</t>
+          <t>10-28 09:18</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300487,1239582222.html</t>
+          <t>/news,300487,1240064947.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>328</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
+          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,29 +1917,29 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-27 08:57</t>
+          <t>10-28 07:47</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300487,1239507200.html</t>
+          <t>/news,300487,1240047399.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>505</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
+          <t>景顺长城基金刘彦春调研蓝晓科技</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1949,29 +1949,29 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-27 09:57</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300487,1239499296.html</t>
+          <t>/news,300487,1239582222.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>488</t>
+          <t>214</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
+          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-26 22:39</t>
+          <t>10-27 08:57</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300487,1239454973.html</t>
+          <t>/news,300487,1239507200.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>344</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
+          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,51 +2013,51 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-26 21:30</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300487,1239444137.html</t>
+          <t>/news,300487,1239499296.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>262</t>
+          <t>490</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
+          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 19:32</t>
+          <t>10-26 22:39</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300487,1239399515.html</t>
+          <t>/news,300487,1239454973.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>349</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,29 +2067,29 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
+          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 18:50</t>
+          <t>10-26 21:30</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300487,1239385772.html</t>
+          <t>/news,300487,1239444137.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2099,29 +2099,29 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>国海证券给予蓝晓科技买入评级</t>
+          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 17:52</t>
+          <t>10-26 19:32</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300487,1239368636.html</t>
+          <t>/news,300487,1239399515.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>198</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2131,39 +2131,39 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
+          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 08:54</t>
+          <t>10-26 18:50</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300487,1238979058.html</t>
+          <t>/news,300487,1239385772.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>280</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
+          <t>国海证券给予蓝晓科技买入评级</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,61 +2173,61 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-26 17:52</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300487,1238967838.html</t>
+          <t>/news,300487,1239368636.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>363</t>
+          <t>201</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
+          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 08:54</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300487,1238867877.html</t>
+          <t>/news,300487,1238979058.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>540</t>
+          <t>298</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
+          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-25 14:51</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300487,1238772466.html</t>
+          <t>/news,300487,1238967838.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>364</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
+          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2269,29 +2269,29 @@
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 14:47</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300487,1238766498.html</t>
+          <t>/news,300487,1238867877.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>380</t>
+          <t>542</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
+          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,93 +2301,93 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 09:16</t>
+          <t>10-25 14:51</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300487,1238467589.html</t>
+          <t>/news,300487,1238772466.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>503</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
+          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 09:09</t>
+          <t>10-25 14:47</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300487,1238463911.html</t>
+          <t>/news,300487,1238766498.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>381</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
+          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-25 09:16</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300487,1238459621.html</t>
+          <t>/news,300487,1238467589.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>504</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
+          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 08:53</t>
+          <t>10-25 09:09</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300487,1238458231.html</t>
+          <t>/news,300487,1238463911.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>259</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,39 +2419,39 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
+          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300487,1238448856.html</t>
+          <t>/news,300487,1238459621.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>393</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
+          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-24 23:07</t>
+          <t>10-25 08:53</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300487,1238415050.html</t>
+          <t>/news,300487,1238458231.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
+          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,19 +2493,19 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-24 19:52</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300487,1238354985.html</t>
+          <t>/news,300487,1238448856.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -2515,39 +2515,39 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
+          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-24 19:41</t>
+          <t>10-24 23:07</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300487,1238351074.html</t>
+          <t>/news,300487,1238415050.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>426</t>
+          <t>427</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
+          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-24 19:39</t>
+          <t>10-24 19:52</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300487,1238354298.html</t>
+          <t>/news,300487,1238354985.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>563</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
+          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 19:41</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300487,1237859908.html</t>
+          <t>/news,300487,1238351074.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>455</t>
+          <t>428</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
+          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,19 +2621,19 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-22 07:50</t>
+          <t>10-24 19:39</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300487,1237797045.html</t>
+          <t>/news,300487,1238354298.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>264</t>
+          <t>435</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -2643,39 +2643,39 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
+          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300487,1237349012.html</t>
+          <t>/news,300487,1237859908.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>456</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
+          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
@@ -2685,29 +2685,29 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-22 07:50</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300487,1236889696.html</t>
+          <t>/news,300487,1237797045.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>384</t>
+          <t>265</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
+          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,29 +2717,29 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-19 18:02</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300487,1236766569.html</t>
+          <t>/news,300487,1237349012.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>273</t>
+          <t>374</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2749,29 +2749,29 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-19 16:40</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300487,1236751518.html</t>
+          <t>/news,300487,1236889696.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
+          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,29 +2781,29 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-19 18:02</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300487,1236438954.html</t>
+          <t>/news,300487,1236766569.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>1937</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,19 +2813,19 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-18 12:37</t>
+          <t>10-19 16:40</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300487,1236214520.html</t>
+          <t>/news,300487,1236751518.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>246</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -2835,7 +2835,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
+          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-18 07:51</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300487,1236042428.html</t>
+          <t>/news,300487,1236438954.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>473</t>
+          <t>1940</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
+          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-17 20:39</t>
+          <t>10-18 12:37</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300487,1235986795.html</t>
+          <t>/news,300487,1236214520.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>241</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
+          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 07:51</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300487,1235954029.html</t>
+          <t>/news,300487,1236042428.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>474</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,19 +2941,19 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-17 17:57</t>
+          <t>10-17 20:39</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300487,1235953563.html</t>
+          <t>/news,300487,1235986795.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>249</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少817.46万元，居塑料制品板块第六</t>
+          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-16 14:06</t>
+          <t>10-17 18:00</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300487,1235576161.html</t>
+          <t>/news,300487,1235954029.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>258</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蓝晓科技10月14日获深股通增持15.35万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-15 07:55</t>
+          <t>10-17 17:57</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300487,1235512228.html</t>
+          <t>/news,300487,1235953563.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>128</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,7 +467,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>蓝晓科技：连续4日融资净买入累计6586.4万元（11-17）</t>
+          <t>蓝晓科技：融资净偿还806.65万元，融资余额2.72亿元（11-18）</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -477,51 +477,51 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>11-18 08:47</t>
+          <t>11-21 08:50</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>/news,300487,1248162263.html</t>
+          <t>/news,300487,1248872463.html</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>178</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>蓝晓科技11月17日被深股通减持9.45万股</t>
+          <t>蓝晓科技本周融资净买入6586.4万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>11-18 07:49</t>
+          <t>11-20 15:09</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>/news,300487,1248153034.html</t>
+          <t>/news,300487,1248770638.html</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>200</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -531,29 +531,29 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>蓝晓科技：连续3日融资净买入累计5517.41万元（11-16）</t>
+          <t>蓝晓科技本周深股通持股市值增加2710.85万元，居塑料制品板块第三</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>11-17 08:48</t>
+          <t>11-20 14:12</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>/news,300487,1247676618.html</t>
+          <t>/news,300487,1248763938.html</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>176</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>蓝晓科技11月16日被深股通减持21.65万股</t>
+          <t>蓝晓科技：连续4日融资净买入累计6586.4万元（11-17）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -573,29 +573,29 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>11-17 07:40</t>
+          <t>11-18 08:47</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>/news,300487,1247665923.html</t>
+          <t>/news,300487,1248162263.html</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>175</t>
+          <t>332</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1268.15万元，融资余额2.5亿元（11-15）</t>
+          <t>蓝晓科技11月17日被深股通减持9.45万股</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -605,19 +605,19 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>11-16 08:51</t>
+          <t>11-18 07:49</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>/news,300487,1247184388.html</t>
+          <t>/news,300487,1248153034.html</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>225</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>蓝晓科技11月15日获深股通增持25.21万股</t>
+          <t>蓝晓科技：连续3日融资净买入累计5517.41万元（11-16）</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -637,19 +637,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>11-16 07:43</t>
+          <t>11-17 08:48</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>/news,300487,1247174299.html</t>
+          <t>/news,300487,1247676618.html</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>189</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2314.7万元，融资余额2.38亿元（11-14）</t>
+          <t>蓝晓科技11月16日被深股通减持21.65万股</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -669,19 +669,19 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>11-15 08:55</t>
+          <t>11-17 07:40</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>/news,300487,1246699477.html</t>
+          <t>/news,300487,1247665923.html</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>260</t>
+          <t>191</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>蓝晓科技11月14日获深股通增持40.73万股</t>
+          <t>蓝晓科技：融资净买入1268.15万元，融资余额2.5亿元（11-15）</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -701,29 +701,29 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>11-15 07:45</t>
+          <t>11-16 08:51</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>/news,300487,1246689351.html</t>
+          <t>/news,300487,1247184388.html</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7546</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>盐湖提锂概念股震荡走弱 蓝晓科技跌超10%</t>
+          <t>蓝晓科技11月15日获深股通增持25.21万股</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -733,19 +733,19 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>11-14 13:24</t>
+          <t>11-16 07:43</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>/news,300487,1246429392.html</t>
+          <t>/news,300487,1247174299.html</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>206</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还614.98万元，融资余额2.15亿元（11-11）</t>
+          <t>蓝晓科技：融资净买入2314.7万元，融资余额2.38亿元（11-14）</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -765,83 +765,83 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>11-14 08:51</t>
+          <t>11-15 08:55</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>/news,300487,1246196883.html</t>
+          <t>/news,300487,1246699477.html</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>313</t>
+          <t>272</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入620.38万元，居塑料制品板块第九</t>
+          <t>蓝晓科技11月14日获深股通增持40.73万股</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>11-13 15:05</t>
+          <t>11-15 07:45</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>/news,300487,1246098518.html</t>
+          <t>/news,300487,1246689351.html</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>7622</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值增加3663.84万元，居塑料制品板块第一</t>
+          <t>盐湖提锂概念股震荡走弱 蓝晓科技跌超10%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>11-13 14:10</t>
+          <t>11-14 13:24</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>/news,300487,1246094686.html</t>
+          <t>/news,300487,1246429392.html</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>202</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>蓝晓科技11月11日被深股通减持10.95万股</t>
+          <t>蓝晓科技：融资净偿还614.98万元，融资余额2.15亿元（11-11）</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -861,51 +861,51 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>11-12 07:47</t>
+          <t>11-14 08:51</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>/news,300487,1245986401.html</t>
+          <t>/news,300487,1246196883.html</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>199</t>
+          <t>323</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还1096.2万元，融资余额2.21亿元（11-10）</t>
+          <t>蓝晓科技本周融资净买入620.38万元，居塑料制品板块第九</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>11-11 08:49</t>
+          <t>11-13 15:05</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>/news,300487,1245424301.html</t>
+          <t>/news,300487,1246098518.html</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -915,29 +915,29 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>蓝晓科技11月10日被深股通减持5.01万股</t>
+          <t>蓝晓科技本周深股通持股市值增加3663.84万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>11-11 07:46</t>
+          <t>11-13 14:10</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>/news,300487,1245411879.html</t>
+          <t>/news,300487,1246094686.html</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>306</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -947,7 +947,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1463万元，融资余额2.32亿元（11-09）</t>
+          <t>蓝晓科技11月11日被深股通减持10.95万股</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -957,19 +957,19 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>11-10 08:54</t>
+          <t>11-12 07:47</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>/news,300487,1244900877.html</t>
+          <t>/news,300487,1245986401.html</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>266</t>
+          <t>218</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>蓝晓科技11月09日获深股通增持17.32万股</t>
+          <t>蓝晓科技：融资净偿还1096.2万元，融资余额2.21亿元（11-10）</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -989,19 +989,19 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>11-10 07:56</t>
+          <t>11-11 08:49</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>/news,300487,1244892569.html</t>
+          <t>/news,300487,1245424301.html</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>227</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
+          <t>蓝晓科技11月10日被深股通减持5.01万股</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1021,19 +1021,19 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>11-09 08:54</t>
+          <t>11-11 07:46</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>/news,300487,1244437663.html</t>
+          <t>/news,300487,1245411879.html</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>257</t>
+          <t>255</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1043,7 +1043,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
+          <t>蓝晓科技：融资净买入1463万元，融资余额2.32亿元（11-09）</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1053,19 +1053,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>11-09 07:47</t>
+          <t>11-10 08:54</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>/news,300487,1244427580.html</t>
+          <t>/news,300487,1244900877.html</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>274</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
+          <t>蓝晓科技11月09日获深股通增持17.32万股</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1085,51 +1085,51 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>11-08 08:53</t>
+          <t>11-10 07:56</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>/news,300487,1243983902.html</t>
+          <t>/news,300487,1244892569.html</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>397</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
+          <t>蓝晓科技：融资净偿还458.69万元，融资余额2.17亿元（11-08）</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>11-08 08:29</t>
+          <t>11-09 08:54</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>/news,300487,1243979798.html</t>
+          <t>/news,300487,1244437663.html</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>288</t>
+          <t>263</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
+          <t>蓝晓科技11月08日获深股通增持29.09万股</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1149,19 +1149,19 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>11-08 07:59</t>
+          <t>11-09 07:47</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>/news,300487,1243976322.html</t>
+          <t>/news,300487,1244427580.html</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>232</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1171,7 +1171,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
+          <t>蓝晓科技：融资净买入712.27万元，融资余额2.22亿元（11-07）</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1181,51 +1181,51 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>11-07 08:50</t>
+          <t>11-08 08:53</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>/news,300487,1243513881.html</t>
+          <t>/news,300487,1243983902.html</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>307</t>
+          <t>406</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
+          <t>招商证券维持蓝晓科技强烈推荐评级 预计2022年净利润同比增长74.36%</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>11-06 15:08</t>
+          <t>11-08 08:29</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>/news,300487,1243411005.html</t>
+          <t>/news,300487,1243979798.html</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>304</t>
+          <t>296</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1235,29 +1235,29 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
+          <t>蓝晓科技11月07日获深股通增持11.74万股</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>11-06 14:08</t>
+          <t>11-08 07:59</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>/news,300487,1243405460.html</t>
+          <t>/news,300487,1243976322.html</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>392</t>
+          <t>269</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1267,7 +1267,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
+          <t>蓝晓科技：融资净买入4156.89万元，融资余额2.15亿元（11-04）</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1277,51 +1277,51 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>11-05 07:57</t>
+          <t>11-07 08:50</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>/news,300487,1243319795.html</t>
+          <t>/news,300487,1243513881.html</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2421</t>
+          <t>314</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
+          <t>蓝晓科技本周融资净买入4880.24万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>11-04 19:23</t>
+          <t>11-06 15:08</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>/news,300487,1243248866.html</t>
+          <t>/news,300487,1243411005.html</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>190</t>
+          <t>309</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1331,29 +1331,29 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
+          <t>蓝晓科技本周深股通持股市值减少3094.62万元，居塑料制品板块第二</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>11-04 08:52</t>
+          <t>11-06 14:08</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>/news,300487,1242826544.html</t>
+          <t>/news,300487,1243405460.html</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>188</t>
+          <t>395</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
+          <t>蓝晓科技11月04日被深股通减持18.95万股</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1373,29 +1373,29 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>11-04 07:42</t>
+          <t>11-05 07:57</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>/news,300487,1242815890.html</t>
+          <t>/news,300487,1243319795.html</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>2440</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
+          <t>蓝晓科技：公司股东安源、李岁党、樊文岷减持计划实施完毕 共减持公司股份12万股</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1405,19 +1405,19 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>11-03 08:56</t>
+          <t>11-04 19:23</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>/news,300487,1242335116.html</t>
+          <t>/news,300487,1243248866.html</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>174</t>
+          <t>194</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1427,7 +1427,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
+          <t>蓝晓科技：融资净买入539.41万元，融资余额1.73亿元（11-03）</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1437,29 +1437,29 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>11-03 07:56</t>
+          <t>11-04 08:52</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>/news,300487,1242326587.html</t>
+          <t>/news,300487,1242826544.html</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>413</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
+          <t>蓝晓科技11月03日被深股通减持9.3万股</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1469,19 +1469,19 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>11-02 20:38</t>
+          <t>11-04 07:42</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>/news,300487,1242248316.html</t>
+          <t>/news,300487,1242815890.html</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>226</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1491,7 +1491,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
+          <t>蓝晓科技：融资净买入418.42万元，融资余额1.68亿元（11-02）</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1501,29 +1501,29 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>11-02 08:55</t>
+          <t>11-03 08:56</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>/news,300487,1241810157.html</t>
+          <t>/news,300487,1242335116.html</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>179</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
+          <t>蓝晓科技11月02日被深股通减持4.93万股</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1533,29 +1533,29 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>11-02 07:57</t>
+          <t>11-03 07:56</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>/news,300487,1241802421.html</t>
+          <t>/news,300487,1242326587.html</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>275</t>
+          <t>423</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
+          <t>蓝晓科技监事李延军减持1万股 减持金额79万元</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1565,19 +1565,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>11-01 09:01</t>
+          <t>11-02 20:38</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>/news,300487,1241306910.html</t>
+          <t>/news,300487,1242248316.html</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>210</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -1587,7 +1587,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
+          <t>蓝晓科技：融资净买入907.43万元，融资余额1.63亿元（11-01）</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1597,29 +1597,29 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>11-01 07:49</t>
+          <t>11-02 08:55</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>/news,300487,1241296443.html</t>
+          <t>/news,300487,1241810157.html</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>248</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
+          <t>蓝晓科技11月01日被深股通减持18.94万股</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1629,29 +1629,29 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>10-31 19:52</t>
+          <t>11-02 07:57</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>/news,300487,1241209949.html</t>
+          <t>/news,300487,1241802421.html</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>551</t>
+          <t>277</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>蓝晓科技：高级管理人员邓建康辞职</t>
+          <t>蓝晓科技：融资净买入3014.98万元，融资余额1.54亿元（10-31）</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1661,19 +1661,19 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>10-31 17:54</t>
+          <t>11-01 09:01</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>/news,300487,1241177635.html</t>
+          <t>/news,300487,1241306910.html</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>239</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1683,7 +1683,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
+          <t>蓝晓科技10月31日获深股通增持14.98万股</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1693,83 +1693,83 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>10-31 08:59</t>
+          <t>11-01 07:49</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>/news,300487,1240797002.html</t>
+          <t>/news,300487,1241296443.html</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>323</t>
+          <t>546</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
+          <t>蓝晓科技：股东韦卫军、樊文岷共减持公司股份约3.67万股</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>大眼看两融</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>10-30 15:08</t>
+          <t>10-31 19:52</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>/news,300487,1240712956.html</t>
+          <t>/news,300487,1241209949.html</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>356</t>
+          <t>565</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
+          <t>蓝晓科技：高级管理人员邓建康辞职</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>10-30 14:09</t>
+          <t>10-31 17:54</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>/news,300487,1240707584.html</t>
+          <t>/news,300487,1241177635.html</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>297</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -1779,29 +1779,29 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
+          <t>蓝晓科技：融资净买入437.45万元，融资余额1.24亿元（10-28）</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>10-30 13:59</t>
+          <t>10-31 08:59</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>/news,300487,1240705782.html</t>
+          <t>/news,300487,1240797002.html</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>371</t>
+          <t>326</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1811,61 +1811,61 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
+          <t>蓝晓科技本周融资净买入8104.91万元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>大眼看两融</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>10-29 07:59</t>
+          <t>10-30 15:08</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>/news,300487,1240601271.html</t>
+          <t>/news,300487,1240712956.html</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>497</t>
+          <t>361</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
+          <t>蓝晓科技本周深股通持股市值减少1.2亿元，居塑料制品板块第一</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>10-28 11:19</t>
+          <t>10-30 14:09</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>/news,300487,1240242802.html</t>
+          <t>/news,300487,1240707584.html</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -1875,39 +1875,39 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
+          <t>光大证券维持蓝晓科技增持评级 预计2022年净利润同比增长61.17%</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>10-28 09:18</t>
+          <t>10-30 13:59</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>/news,300487,1240064947.html</t>
+          <t>/news,300487,1240705782.html</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>378</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
+          <t>蓝晓科技10月28日被深股通减持40.4万股</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1917,51 +1917,51 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>10-28 07:47</t>
+          <t>10-29 07:59</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>/news,300487,1240047399.html</t>
+          <t>/news,300487,1240601271.html</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>503</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>景顺长城基金刘彦春调研蓝晓科技</t>
+          <t>中信证券维持蓝晓科技买入评级 目标价100元</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>10-27 09:57</t>
+          <t>10-28 11:19</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>/news,300487,1239582222.html</t>
+          <t>/news,300487,1240242802.html</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>243</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -1971,7 +1971,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
+          <t>蓝晓科技：融资净买入1687.79万元，融资余额1.2亿元（10-27）</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1981,29 +1981,29 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>10-27 08:57</t>
+          <t>10-28 09:18</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>/news,300487,1239507200.html</t>
+          <t>/news,300487,1240064947.html</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>344</t>
+          <t>334</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
+          <t>蓝晓科技10月27日被深股通减持53.41万股</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2013,29 +2013,29 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>10-27 08:01</t>
+          <t>10-28 07:47</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>/news,300487,1239499296.html</t>
+          <t>/news,300487,1240047399.html</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>490</t>
+          <t>511</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
+          <t>景顺长城基金刘彦春调研蓝晓科技</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -2045,19 +2045,19 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>10-26 22:39</t>
+          <t>10-27 09:57</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>/news,300487,1239454973.html</t>
+          <t>/news,300487,1239582222.html</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>215</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2067,7 +2067,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
+          <t>蓝晓科技：融资净买入3565.58万元，融资余额1.03亿元（10-26）</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -2077,83 +2077,83 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>10-26 21:30</t>
+          <t>10-27 08:57</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>/news,300487,1239444137.html</t>
+          <t>/news,300487,1239507200.html</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>263</t>
+          <t>350</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
+          <t>蓝晓科技10月26日被深股通减持5.68万股</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>10-26 19:32</t>
+          <t>10-27 08:01</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>/news,300487,1239399515.html</t>
+          <t>/news,300487,1239499296.html</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>274</t>
+          <t>502</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
+          <t>蓝晓科技：均粒超纯水系列树脂与京东方等厂商实现商业化订单</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>10-26 18:50</t>
+          <t>10-26 22:39</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>/news,300487,1239385772.html</t>
+          <t>/news,300487,1239454973.html</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>354</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>国海证券给予蓝晓科技买入评级</t>
+          <t>蓝晓科技：接受太平资产管理有限公司等机构调研</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2173,19 +2173,19 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>10-26 17:52</t>
+          <t>10-26 21:30</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>/news,300487,1239368636.html</t>
+          <t>/news,300487,1239444137.html</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>266</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2195,103 +2195,103 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
+          <t>国海证券维持蓝晓科技买入评级 预计2022年净利润同比增长63.42%</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>10-26 08:54</t>
+          <t>10-26 19:32</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>/news,300487,1238979058.html</t>
+          <t>/news,300487,1239399515.html</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>298</t>
+          <t>276</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
+          <t>华创证券维持蓝晓科技强推评级 目标价95.4元</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>10-26 07:45</t>
+          <t>10-26 18:50</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>/news,300487,1238967838.html</t>
+          <t>/news,300487,1239385772.html</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>364</t>
+          <t>287</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
+          <t>国海证券给予蓝晓科技买入评级</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>10-25 19:39</t>
+          <t>10-26 17:52</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>/news,300487,1238867877.html</t>
+          <t>/news,300487,1239368636.html</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>542</t>
+          <t>203</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
+          <t>蓝晓科技：融资净买入2851.55万元，融资余额6728.19万元（10-25）</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2301,93 +2301,93 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>10-25 14:51</t>
+          <t>10-26 08:54</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>/news,300487,1238772466.html</t>
+          <t>/news,300487,1238979058.html</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>300</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
+          <t>蓝晓科技10月25日被深股通减持43.88万股</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>公司研报提示</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>10-25 14:47</t>
+          <t>10-26 07:45</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>/news,300487,1238766498.html</t>
+          <t>/news,300487,1238967838.html</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>381</t>
+          <t>367</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
+          <t>国泰君安维持蓝晓科技增持评级 目标价102元</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>10-25 09:16</t>
+          <t>10-25 19:39</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>/news,300487,1238467589.html</t>
+          <t>/news,300487,1238867877.html</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>504</t>
+          <t>547</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
+          <t>华安证券给予蓝晓科技买入评级，Q3业绩高增长，盐湖提锂订单有望加速释放</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2397,19 +2397,19 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>10-25 09:09</t>
+          <t>10-25 14:51</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>/news,300487,1238463911.html</t>
+          <t>/news,300487,1238772466.html</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>259</t>
+          <t>244</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2419,7 +2419,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
+          <t>华安证券维持蓝晓科技买入评级 预计2022年净利润同比增长72.11%</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2429,29 +2429,29 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>10-25 08:58</t>
+          <t>10-25 14:47</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>/news,300487,1238459621.html</t>
+          <t>/news,300487,1238766498.html</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>385</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
+          <t>蓝晓科技：主营业务快速发展，前三季度归母净利润同比增31.97%</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -2461,29 +2461,29 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>10-25 08:53</t>
+          <t>10-25 09:16</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>/news,300487,1238458231.html</t>
+          <t>/news,300487,1238467589.html</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>195</t>
+          <t>510</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
+          <t>安信证券给予蓝晓科技买入评级：季度业绩平稳释放 盐湖提锂大项目收入确认可期</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2493,61 +2493,61 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>10-25 07:52</t>
+          <t>10-25 09:09</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>/news,300487,1238448856.html</t>
+          <t>/news,300487,1238463911.html</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>396</t>
+          <t>260</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
+          <t>安信证券维持蓝晓科技买入评级 目标价90元</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>公司研报提示</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>10-24 23:07</t>
+          <t>10-25 08:58</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>/news,300487,1238415050.html</t>
+          <t>/news,300487,1238459621.html</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>427</t>
+          <t>217</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
+          <t>蓝晓科技：纳入融资融券标的首日，融资买入4832.9万元（10-24）</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -2557,51 +2557,51 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>10-24 19:52</t>
+          <t>10-25 08:53</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>/news,300487,1238354985.html</t>
+          <t>/news,300487,1238458231.html</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>563</t>
+          <t>197</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
+          <t>蓝晓科技10月24日被深股通减持6.84万股</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>一句话财报</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>10-24 19:41</t>
+          <t>10-25 07:52</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>/news,300487,1238351074.html</t>
+          <t>/news,300487,1238448856.html</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>428</t>
+          <t>401</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
+          <t>【图解季报】蓝晓科技：2022年前三季度归母净利润同比增长32%，约为3.1亿元</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -2621,51 +2621,51 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>10-24 19:39</t>
+          <t>10-24 23:07</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>/news,300487,1238354298.html</t>
+          <t>/news,300487,1238415050.html</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>435</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
+          <t>蓝晓科技股东户数下降7.12%，户均持股106.4万元</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>胖猫周周见</t>
+          <t>蓝晓科技资讯</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>10-23 14:05</t>
+          <t>10-24 19:52</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>/news,300487,1237859908.html</t>
+          <t>/news,300487,1238354985.html</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>456</t>
+          <t>567</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -2675,39 +2675,39 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
+          <t>蓝晓科技：2022年前三季度净利润同比增长31.97%</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>一句话财报</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>10-22 07:50</t>
+          <t>10-24 19:41</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>/news,300487,1237797045.html</t>
+          <t>/news,300487,1238351074.html</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>265</t>
+          <t>431</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
+          <t>蓝晓科技：2022年前三季度净利润约3.14亿元</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2717,61 +2717,61 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>10-21 07:53</t>
+          <t>10-24 19:39</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>/news,300487,1237349012.html</t>
+          <t>/news,300487,1238354298.html</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>374</t>
+          <t>436</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
+          <t>蓝晓科技本周深股通持股市值减少2266.53万元，居塑料制品板块第五</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>蓝晓科技资讯</t>
+          <t>胖猫周周见</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>10-20 07:54</t>
+          <t>10-23 14:05</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>/news,300487,1236889696.html</t>
+          <t>/news,300487,1237859908.html</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>385</t>
+          <t>461</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
+          <t>蓝晓科技10月21日获深股通增持10.35万股</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2781,19 +2781,19 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>10-19 18:02</t>
+          <t>10-22 07:50</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>/news,300487,1236766569.html</t>
+          <t>/news,300487,1237797045.html</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>268</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -2803,7 +2803,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月20日被深股通减持17.01万股</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2813,29 +2813,29 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>10-19 16:40</t>
+          <t>10-21 07:53</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>/news,300487,1236751518.html</t>
+          <t>/news,300487,1237349012.html</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>375</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
+          <t>蓝晓科技10月19日被深股通减持12.92万股</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2845,29 +2845,29 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>10-19 07:45</t>
+          <t>10-20 07:54</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>/news,300487,1236438954.html</t>
+          <t>/news,300487,1236889696.html</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>1940</t>
+          <t>386</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>3</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
+          <t>大宗交易：机构账户买入蓝晓科技415.55万元（10-19）</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2877,19 +2877,19 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>10-18 12:37</t>
+          <t>10-19 18:02</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>/news,300487,1236214520.html</t>
+          <t>/news,300487,1236766569.html</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>279</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -2899,7 +2899,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
+          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2909,29 +2909,29 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>10-18 07:51</t>
+          <t>10-19 16:40</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>/news,300487,1236042428.html</t>
+          <t>/news,300487,1236751518.html</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>474</t>
+          <t>251</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>0</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>蓝晓科技监事樊文岷减持5000股 减持金额37.67万元</t>
+          <t>蓝晓科技10月18日获深股通增持10.71万股</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -2941,29 +2941,29 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>10-17 20:39</t>
+          <t>10-19 07:45</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>/news,300487,1235986795.html</t>
+          <t>/news,300487,1236438954.html</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>大宗交易：蓝晓科技成交774.33万元，成交价75.84元（10-17）</t>
+          <t>最后2小时！不操作或亏70%！这只可转债迎强赎 如何操作？（附攻略）</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2973,19 +2973,19 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>10-17 18:00</t>
+          <t>10-18 12:37</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>/news,300487,1235954029.html</t>
+          <t>/news,300487,1236214520.html</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>258</t>
+          <t>242</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>蓝晓科技：拟提前赎回“蓝晓转债”</t>
+          <t>蓝晓科技10月17日被深股通减持20.18万股</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -3005,12 +3005,12 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>10-17 17:57</t>
+          <t>10-18 07:51</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>/news,300487,1235953563.html</t>
+          <t>/news,300487,1236042428.html</t>
         </is>
       </c>
     </row>

--- a/news_ann/news/tmp/300487.xlsx
+++ b/news_ann/news/tmp/300487.xlsx
@@ -457,7 +457,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>128</t>
+          <t>133</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -521,7 +521,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>207</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -585,7 +585,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>332</t>
+          <t>333</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -809,7 +809,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7622</t>
+          <t>7624</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1161,7 +1161,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>233</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>407</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1353,7 +1353,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>395</t>
+          <t>396</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1385,7 +1385,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2440</t>
+          <t>2441</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1417,7 +1417,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>194</t>
+          <t>195</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1673,7 +1673,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>240</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -1737,7 +1737,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>565</t>
+          <t>566</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2409,7 +2409,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>245</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -2761,7 +2761,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>462</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
